--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_682.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_682.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33012-d266285-Reviews-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>110</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Rodeway-Inn-San-Clemente-Beach.h59244.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_682.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_682.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="403">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1089 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r560045676-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>33012</t>
+  </si>
+  <si>
+    <t>266285</t>
+  </si>
+  <si>
+    <t>560045676</t>
+  </si>
+  <si>
+    <t>02/12/2018</t>
+  </si>
+  <si>
+    <t>Beware the Hidden Safe Charge!</t>
+  </si>
+  <si>
+    <t>Once in my room, I examined the bill and noticed that I'd been charged a little more than agreed. I went back to the reception and spoke to the American lady who informed me that it was a charge to have a safe in the room. She said, 'Oh didn't I mention the charge when you checked in?'. Erm, no she didn't, but she did remember to tell me the other important information, such as check out time and breakfast. An additional charge for a safe is utter nonsense. What next...will you be taking a shower Sir? that will be an additional $5. Are you likely to use the toilet Sir? it's $1 per flush and if you use paper there will be an additional charge or 10 cents per sheet. Come on management, this is penny pinching and pure greed.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Once in my room, I examined the bill and noticed that I'd been charged a little more than agreed. I went back to the reception and spoke to the American lady who informed me that it was a charge to have a safe in the room. She said, 'Oh didn't I mention the charge when you checked in?'. Erm, no she didn't, but she did remember to tell me the other important information, such as check out time and breakfast. An additional charge for a safe is utter nonsense. What next...will you be taking a shower Sir? that will be an additional $5. Are you likely to use the toilet Sir? it's $1 per flush and if you use paper there will be an additional charge or 10 cents per sheet. Come on management, this is penny pinching and pure greed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r525824873-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>525824873</t>
+  </si>
+  <si>
+    <t>09/19/2017</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>I checked in late on a Friday night and Lois was very pleasant. She gave me recommendations on restaurants within walking distance of the hotel. We went to the Mexican place up the hill and it was great. Our room was much larger than I expected and very clean. I wasn't expecting anything spectacular for the price we paid; so i was pleasantly surprised with how nice our room was.The shower was amazing, lots of pressure! The room was cleaned every day while we were out. The hotel was very quiet through the weekend. There was plenty of parking in the garage or on the main level.  Perfect location near the outlet mall and restaurants. If we return to that area again, we will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>I checked in late on a Friday night and Lois was very pleasant. She gave me recommendations on restaurants within walking distance of the hotel. We went to the Mexican place up the hill and it was great. Our room was much larger than I expected and very clean. I wasn't expecting anything spectacular for the price we paid; so i was pleasantly surprised with how nice our room was.The shower was amazing, lots of pressure! The room was cleaned every day while we were out. The hotel was very quiet through the weekend. There was plenty of parking in the garage or on the main level.  Perfect location near the outlet mall and restaurants. If we return to that area again, we will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r525295770-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>525295770</t>
+  </si>
+  <si>
+    <t>09/17/2017</t>
+  </si>
+  <si>
+    <t>Quick weekend surf trip</t>
+  </si>
+  <si>
+    <t>I was. Very pleased with their accommodation. Very pleasant front desk lady named Lois help me check in and gave me options of what floor and room I would prefer.  I asked where the nearest movie theater was and she happily gave me directions to it. The room was clean and very spacious. The staff was quiet and gave me the privacy I needed when I slept in. Parking was convenient and safe. The parking garage gave me that peace of mind that my vehicle is out of danger. I would stay there again if I visit again. The only suggestion I do have is they need to up their free breakfast selection. Overall very nice place for a quick visit and stay in San Clemente. I will recommend them to people. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I was. Very pleased with their accommodation. Very pleasant front desk lady named Lois help me check in and gave me options of what floor and room I would prefer.  I asked where the nearest movie theater was and she happily gave me directions to it. The room was clean and very spacious. The staff was quiet and gave me the privacy I needed when I slept in. Parking was convenient and safe. The parking garage gave me that peace of mind that my vehicle is out of danger. I would stay there again if I visit again. The only suggestion I do have is they need to up their free breakfast selection. Overall very nice place for a quick visit and stay in San Clemente. I will recommend them to people. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r510498627-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>510498627</t>
+  </si>
+  <si>
+    <t>08/09/2017</t>
+  </si>
+  <si>
+    <t>Needs improvement</t>
+  </si>
+  <si>
+    <t>The room was large, pretty clean and quiet.  It was nice to have cabe TV including HBO and Star.  The room and hotel is very dated.  Bed linens and towels are low quality and the pillows are small sofa pillows.  The ice machine which was ancient had no ice.  I understand that this is a budget motel (we paid $177/nt) and expectations should be lower.  The place is ok in a pinch but if given a choice I would not go back.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r505978474-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>505978474</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>Great Location For a Budget</t>
+  </si>
+  <si>
+    <t>Loved the way we were welcomed by a smile, and treated as important guests by all the staff.  We arrived early, and accommodated immediately.  We stayed three nights in room 405 which was huge and sits on the corner of the hotel.  This room had a couch and a nice balcony where you could see the ocean in the distance. It is on a busy street, but high enough that the traffic did not bother us.  Not a fancy hotel, but great price and had more of a family atmosphere, than a party crowd.  Free parking upstairs and free covered parking downstairs.  We did not have any trouble finding a place to park.  Very close to Doheny Beach, Dana Point and plenty of places to eat.  Continental breakfast is boxed juice, coffee and packaged danish, but the size of the room, price and location make up for not having a full breakfast. Fridge, microwave and coffee maker included in room.   We would absolutely stay here again, especially in the same room.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Loved the way we were welcomed by a smile, and treated as important guests by all the staff.  We arrived early, and accommodated immediately.  We stayed three nights in room 405 which was huge and sits on the corner of the hotel.  This room had a couch and a nice balcony where you could see the ocean in the distance. It is on a busy street, but high enough that the traffic did not bother us.  Not a fancy hotel, but great price and had more of a family atmosphere, than a party crowd.  Free parking upstairs and free covered parking downstairs.  We did not have any trouble finding a place to park.  Very close to Doheny Beach, Dana Point and plenty of places to eat.  Continental breakfast is boxed juice, coffee and packaged danish, but the size of the room, price and location make up for not having a full breakfast. Fridge, microwave and coffee maker included in room.   We would absolutely stay here again, especially in the same room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r503985642-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>503985642</t>
+  </si>
+  <si>
+    <t>07/20/2017</t>
+  </si>
+  <si>
+    <t>"Comfortable clean and big size room"</t>
+  </si>
+  <si>
+    <t>We spend July 4th weekend there and we were surprised how big and clean our room was. There is sufficient parking even the receptionist told us it was fully booked. However, don't plan on eating breakfast there. May be you can grab a danish on your way out to breakfast. Overall, we are quite satisfied with our stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r473290859-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>473290859</t>
+  </si>
+  <si>
+    <t>04/06/2017</t>
+  </si>
+  <si>
+    <t>Old Style Beach Town Budget Motel</t>
+  </si>
+  <si>
+    <t>Budget motel on El Camino Real but walkable to the beach if you know the way. My room was small and fronted on the main street. So there was street noise, particularly during the day. But it was comfortable. Parking is available but it could get cramped if the motel is full. But free street parking aside the motel is also available 24/7. Also, watch out for the added safe fee. If you don't use the safe, ask for it to be waived.  Moreover, I discovered a homeless person sleeping outside next to my car. No problem, but some people might have an issue with this. This is a beach town and homelessness is visible here.  On another note, the breakfast is not very appealing. Maybe find something better in town.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Budget motel on El Camino Real but walkable to the beach if you know the way. My room was small and fronted on the main street. So there was street noise, particularly during the day. But it was comfortable. Parking is available but it could get cramped if the motel is full. But free street parking aside the motel is also available 24/7. Also, watch out for the added safe fee. If you don't use the safe, ask for it to be waived.  Moreover, I discovered a homeless person sleeping outside next to my car. No problem, but some people might have an issue with this. This is a beach town and homelessness is visible here.  On another note, the breakfast is not very appealing. Maybe find something better in town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r447207303-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>447207303</t>
+  </si>
+  <si>
+    <t>12/28/2016</t>
+  </si>
+  <si>
+    <t>location location location</t>
+  </si>
+  <si>
+    <t>the room was comfortable with a fridge and a microwave. we walked everywhere and near sooooo many wine bars, restaurants, shops, vintage shops (we love these, we are from NYC), san clemente pier and beach. We also took uber to and from dana point and other areas and it only cost no more than 10$. We loved this little standard hotel and would stay here again due to its proximity to everything.Also the front desk was super nice to us!this is not a fancy hotel, but we were out and about so much we did not care. the location was everything to us.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r424243206-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>424243206</t>
+  </si>
+  <si>
+    <t>10/01/2016</t>
+  </si>
+  <si>
+    <t>Worth the price</t>
+  </si>
+  <si>
+    <t>The room was clean and spacious. The mini fridge was bigger than expected - it held a few days worth of food. The breakfast they offered did not have much selection - no fruit at all the days we came in to look, but overall I think it's a decent place that is worth the lower cost.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r410299828-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>410299828</t>
+  </si>
+  <si>
+    <t>08/24/2016</t>
+  </si>
+  <si>
+    <t>Reasonably Priced Walking Distance to the Beach</t>
+  </si>
+  <si>
+    <t>Arrived early on the first day of our reservation and we were offered a huge room with a balcony on the top floor of this hotel.  Parking was easy on 2 levels, and the management kindly. The deep bathtub had jacuzzi jets.  Nice!</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r407984255-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>407984255</t>
+  </si>
+  <si>
+    <t>08/20/2016</t>
+  </si>
+  <si>
+    <t>A noisy bargain in a beachside town</t>
+  </si>
+  <si>
+    <t>Son Dan and I chose this place for location and competitive pricing.  Close enough to area attractions, it was too close to a noisy highway, the busy El Camino Real. For extra noise we had rambunctious neighbors in room above us. They finally quieted down at midnight, after we phoned management.  The manager, of Indian ancestry, was helpful. He upgraded us to a room with a patio where we could enjoy cigars. We skipped the motel breakfast to go the Fisherman on the pier. Rate for night was $143 total, not bad for a tourist town.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r396032595-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>396032595</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>We booked it because it was a cheaper than staying near our conference in San Juan Capistrano and it was a great idea because otherwise we would''t have a chance to know this beautiful city. Stay was nice, as expected, and would come back.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r368230480-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>368230480</t>
+  </si>
+  <si>
+    <t>04/27/2016</t>
+  </si>
+  <si>
+    <t>Dreary dated accommodations.......pass on it!!!</t>
+  </si>
+  <si>
+    <t>The exterior of the building was nice enough, interior felt very old, baseboard had a rotten place in the bathroom.  Had problems checking in with our credit card, had to call our bank to which they said it was the vendor machine malfunction.  The hotel advertised continental breakfast, but is was just a little shelf  in the very small ( maybe 10'x12' lobby) with cereal bars, instant oatmeal packets, and coffee hardly qualifies as a continental breakfast.  Thankfully we only were there one night but our friends that met us in San Clemente were there 2 nights and had trouble with the room key in there room every time they left and tried to re enter on top of the disappointing rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>The exterior of the building was nice enough, interior felt very old, baseboard had a rotten place in the bathroom.  Had problems checking in with our credit card, had to call our bank to which they said it was the vendor machine malfunction.  The hotel advertised continental breakfast, but is was just a little shelf  in the very small ( maybe 10'x12' lobby) with cereal bars, instant oatmeal packets, and coffee hardly qualifies as a continental breakfast.  Thankfully we only were there one night but our friends that met us in San Clemente were there 2 nights and had trouble with the room key in there room every time they left and tried to re enter on top of the disappointing rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r360135492-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>360135492</t>
+  </si>
+  <si>
+    <t>03/30/2016</t>
+  </si>
+  <si>
+    <t>San Clemente Nights</t>
+  </si>
+  <si>
+    <t>When we arrived I discovered I had booked a smoking room by mistake. The place was pretty well booked but thanks to the manager we were able to move to a non-smoking room. The room had a fridge, micro wave and ironing board. There was under building parking. This was a good location for the time we were here.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r348901542-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>348901542</t>
+  </si>
+  <si>
+    <t>02/18/2016</t>
+  </si>
+  <si>
+    <t>Excellent Value, Mid-Point Location</t>
+  </si>
+  <si>
+    <t>Yes, it IS a Rodeway Inn, so what makes it very good bordering on excellent?  
+LOCATION: We ride the Metrolink train into San Clemente from the east; there are two stations that serve that area, one is "San Clemente", the other "San Clemente Pier."  For people who wish to do the same, if you disembark at the first, you'll be closer to this hotel, but, you'll have a 15 minute walk uphill, and we had to drag our luggage along with us.  I suppose we could've waited for a cab, but we travelled light so it wasn't that much work.  For those who arrive by car, not an issue.  From the hotel, it's about a 20-30 minute walk, first uphill, then leveling out/downhill to Avienda Del Mar, which is the main drag for downtown.  Along that walk you'll find many interesting shops and restaurants.  In short, the hotel is midway between San Clemente beach, and the Pier, so you can get to either with a stroll. 
+HOTEL &amp; GROUNDS
+When we first arrived, like most folks probably, we weren't impressed. Looked like a Rodeway Inn or Motel 6.  We arrived early on a busy three day weekend and so had to wait until after 3 pm to check in, their standard time.  The hotel is no frills, hence the under $100 we paid.  We had to convince the front desk person to allow us to leave our luggage in the...Yes, it IS a Rodeway Inn, so what makes it very good bordering on excellent?  LOCATION: We ride the Metrolink train into San Clemente from the east; there are two stations that serve that area, one is "San Clemente", the other "San Clemente Pier."  For people who wish to do the same, if you disembark at the first, you'll be closer to this hotel, but, you'll have a 15 minute walk uphill, and we had to drag our luggage along with us.  I suppose we could've waited for a cab, but we travelled light so it wasn't that much work.  For those who arrive by car, not an issue.  From the hotel, it's about a 20-30 minute walk, first uphill, then leveling out/downhill to Avienda Del Mar, which is the main drag for downtown.  Along that walk you'll find many interesting shops and restaurants.  In short, the hotel is midway between San Clemente beach, and the Pier, so you can get to either with a stroll. HOTEL &amp; GROUNDSWhen we first arrived, like most folks probably, we weren't impressed. Looked like a Rodeway Inn or Motel 6.  We arrived early on a busy three day weekend and so had to wait until after 3 pm to check in, their standard time.  The hotel is no frills, hence the under $100 we paid.  We had to convince the front desk person to allow us to leave our luggage in the office while we waited for the room to be ready so we could walk around the town.  They obviously have no valet, but, it would be really great if they improved their ability to hold luggage for guests who need that service, I cannot imagine many people would have our arrive-by-train and no car trunk in which to keep the bags circumstance, but, why not do a little extra.  In our case they did, but that was at their discretion.  The Room: first floor king bed.  Very clean, weird layout, kind of like you'd see in a beach house that's been re-re-renovated.  Good water temp and pressure, shampoo and soap only. Again, no frills: no bath mat towel (probably incompetent maid's fault) and two sets of towels only.  Firm, good bed, furnishings were clean and not worn out.  Though the hotel is located on a main street, our room was on the north side and very quiet.OTHER/TRANSPORTATIONTaxis, Uber, and Lyft are in short supply around San Clemente, so plan on walking.  There is a bus line, but it's every sixty minutes, so unless you like waiting at bus stops you'd be better off walking.  That being said, most things are within walking distance, but remember there are hills.  The one negative I will point out is that the front desk staff were not at all educated on local transportation, which to me is one of those fundamental pieces of info that they really should know and be able to share.SUMMARY:All in all, I would return and stay here again, because we weren't there for the hotel, we were there to enjoy each other's company and what was offered outside the hotel: San Clemente.  One more interesting note: I saw several luxury cars parked in the parking lot, Mercedes, Lexus, even a Maserati; apparently even the rich folk like this place!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Yes, it IS a Rodeway Inn, so what makes it very good bordering on excellent?  
+LOCATION: We ride the Metrolink train into San Clemente from the east; there are two stations that serve that area, one is "San Clemente", the other "San Clemente Pier."  For people who wish to do the same, if you disembark at the first, you'll be closer to this hotel, but, you'll have a 15 minute walk uphill, and we had to drag our luggage along with us.  I suppose we could've waited for a cab, but we travelled light so it wasn't that much work.  For those who arrive by car, not an issue.  From the hotel, it's about a 20-30 minute walk, first uphill, then leveling out/downhill to Avienda Del Mar, which is the main drag for downtown.  Along that walk you'll find many interesting shops and restaurants.  In short, the hotel is midway between San Clemente beach, and the Pier, so you can get to either with a stroll. 
+HOTEL &amp; GROUNDS
+When we first arrived, like most folks probably, we weren't impressed. Looked like a Rodeway Inn or Motel 6.  We arrived early on a busy three day weekend and so had to wait until after 3 pm to check in, their standard time.  The hotel is no frills, hence the under $100 we paid.  We had to convince the front desk person to allow us to leave our luggage in the...Yes, it IS a Rodeway Inn, so what makes it very good bordering on excellent?  LOCATION: We ride the Metrolink train into San Clemente from the east; there are two stations that serve that area, one is "San Clemente", the other "San Clemente Pier."  For people who wish to do the same, if you disembark at the first, you'll be closer to this hotel, but, you'll have a 15 minute walk uphill, and we had to drag our luggage along with us.  I suppose we could've waited for a cab, but we travelled light so it wasn't that much work.  For those who arrive by car, not an issue.  From the hotel, it's about a 20-30 minute walk, first uphill, then leveling out/downhill to Avienda Del Mar, which is the main drag for downtown.  Along that walk you'll find many interesting shops and restaurants.  In short, the hotel is midway between San Clemente beach, and the Pier, so you can get to either with a stroll. HOTEL &amp; GROUNDSWhen we first arrived, like most folks probably, we weren't impressed. Looked like a Rodeway Inn or Motel 6.  We arrived early on a busy three day weekend and so had to wait until after 3 pm to check in, their standard time.  The hotel is no frills, hence the under $100 we paid.  We had to convince the front desk person to allow us to leave our luggage in the office while we waited for the room to be ready so we could walk around the town.  They obviously have no valet, but, it would be really great if they improved their ability to hold luggage for guests who need that service, I cannot imagine many people would have our arrive-by-train and no car trunk in which to keep the bags circumstance, but, why not do a little extra.  In our case they did, but that was at their discretion.  The Room: first floor king bed.  Very clean, weird layout, kind of like you'd see in a beach house that's been re-re-renovated.  Good water temp and pressure, shampoo and soap only. Again, no frills: no bath mat towel (probably incompetent maid's fault) and two sets of towels only.  Firm, good bed, furnishings were clean and not worn out.  Though the hotel is located on a main street, our room was on the north side and very quiet.OTHER/TRANSPORTATIONTaxis, Uber, and Lyft are in short supply around San Clemente, so plan on walking.  There is a bus line, but it's every sixty minutes, so unless you like waiting at bus stops you'd be better off walking.  That being said, most things are within walking distance, but remember there are hills.  The one negative I will point out is that the front desk staff were not at all educated on local transportation, which to me is one of those fundamental pieces of info that they really should know and be able to share.SUMMARY:All in all, I would return and stay here again, because we weren't there for the hotel, we were there to enjoy each other's company and what was offered outside the hotel: San Clemente.  One more interesting note: I saw several luxury cars parked in the parking lot, Mercedes, Lexus, even a Maserati; apparently even the rich folk like this place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r312232684-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>312232684</t>
+  </si>
+  <si>
+    <t>09/20/2015</t>
+  </si>
+  <si>
+    <t>Decent Little Spot, But Beware of Rude Staff!</t>
+  </si>
+  <si>
+    <t>Rodeway is in a prime spot on El Camino Real, just a few blocks from the heart of Downtown San Clemente. The hotel itself was very well kept. We booked a King Suite, which had an awkward layout, but plenty of space and a Jacuzzi tub in the bathroom, which wasn't even mention in the room description. The room was clean, views aren't amazing, but what really upset me was the woman at the front desk. I called ahead to see if my room was ready. She said they were cleaning it and it would be ready in 20 min. So, we made our way out of the beach and over to check in. At least 30 minutes had passed and when i get there she gave me a confused look and said oh no, it wont be ready for another hour!! Really? It was already 2:30 and check in was at 3. She claimed that the people who were staying their prior had chosen not to check out until 2pm. Hmm, maybe she should have mentioned that earlier. Then she yelled, well go eat lunch or something.  We walked into downtown to look around for a bit and returned a few hours later. The room was finally ready. I went over to the ice machine and suddenly, rude front desk lady pops up behind me and insists that I not get too much ice, because I need to save...Rodeway is in a prime spot on El Camino Real, just a few blocks from the heart of Downtown San Clemente. The hotel itself was very well kept. We booked a King Suite, which had an awkward layout, but plenty of space and a Jacuzzi tub in the bathroom, which wasn't even mention in the room description. The room was clean, views aren't amazing, but what really upset me was the woman at the front desk. I called ahead to see if my room was ready. She said they were cleaning it and it would be ready in 20 min. So, we made our way out of the beach and over to check in. At least 30 minutes had passed and when i get there she gave me a confused look and said oh no, it wont be ready for another hour!! Really? It was already 2:30 and check in was at 3. She claimed that the people who were staying their prior had chosen not to check out until 2pm. Hmm, maybe she should have mentioned that earlier. Then she yelled, well go eat lunch or something.  We walked into downtown to look around for a bit and returned a few hours later. The room was finally ready. I went over to the ice machine and suddenly, rude front desk lady pops up behind me and insists that I not get too much ice, because I need to save some for the other guests. Really?? I didn't know it was a crime to get ice. At this point I felt a bit of racial profiling going on, since I am Latina. I was really irritated, the next day I checked out over the phone to avoid any more encounters with her. I would stay hear again, I just hope it's on a day when someone else is at the front desk!MoreShow less</t>
+  </si>
+  <si>
+    <t>Rodeway is in a prime spot on El Camino Real, just a few blocks from the heart of Downtown San Clemente. The hotel itself was very well kept. We booked a King Suite, which had an awkward layout, but plenty of space and a Jacuzzi tub in the bathroom, which wasn't even mention in the room description. The room was clean, views aren't amazing, but what really upset me was the woman at the front desk. I called ahead to see if my room was ready. She said they were cleaning it and it would be ready in 20 min. So, we made our way out of the beach and over to check in. At least 30 minutes had passed and when i get there she gave me a confused look and said oh no, it wont be ready for another hour!! Really? It was already 2:30 and check in was at 3. She claimed that the people who were staying their prior had chosen not to check out until 2pm. Hmm, maybe she should have mentioned that earlier. Then she yelled, well go eat lunch or something.  We walked into downtown to look around for a bit and returned a few hours later. The room was finally ready. I went over to the ice machine and suddenly, rude front desk lady pops up behind me and insists that I not get too much ice, because I need to save...Rodeway is in a prime spot on El Camino Real, just a few blocks from the heart of Downtown San Clemente. The hotel itself was very well kept. We booked a King Suite, which had an awkward layout, but plenty of space and a Jacuzzi tub in the bathroom, which wasn't even mention in the room description. The room was clean, views aren't amazing, but what really upset me was the woman at the front desk. I called ahead to see if my room was ready. She said they were cleaning it and it would be ready in 20 min. So, we made our way out of the beach and over to check in. At least 30 minutes had passed and when i get there she gave me a confused look and said oh no, it wont be ready for another hour!! Really? It was already 2:30 and check in was at 3. She claimed that the people who were staying their prior had chosen not to check out until 2pm. Hmm, maybe she should have mentioned that earlier. Then she yelled, well go eat lunch or something.  We walked into downtown to look around for a bit and returned a few hours later. The room was finally ready. I went over to the ice machine and suddenly, rude front desk lady pops up behind me and insists that I not get too much ice, because I need to save some for the other guests. Really?? I didn't know it was a crime to get ice. At this point I felt a bit of racial profiling going on, since I am Latina. I was really irritated, the next day I checked out over the phone to avoid any more encounters with her. I would stay hear again, I just hope it's on a day when someone else is at the front desk!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r300074926-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>300074926</t>
+  </si>
+  <si>
+    <t>08/16/2015</t>
+  </si>
+  <si>
+    <t>Diamond in the rough</t>
+  </si>
+  <si>
+    <t>As a technician spending over 100 nights a year in a hotel room, I am always looking for a good price with little compromise on cleanliness. This hotel was perfect for both. Although this hotel is showing its age, it is well kept and very clean. The location is very close to the beach if that's your reason for staying and a short piece off the 5 if you need to travel for work. The only down side would be the proximity to the highway. Most rooms back up to a four lane that produces a little unwanted noise but nothing too bad. The breakfast was also not much to write home about with mainly assorted Danishes and breakfast bars. For the price though this place is a winner.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>As a technician spending over 100 nights a year in a hotel room, I am always looking for a good price with little compromise on cleanliness. This hotel was perfect for both. Although this hotel is showing its age, it is well kept and very clean. The location is very close to the beach if that's your reason for staying and a short piece off the 5 if you need to travel for work. The only down side would be the proximity to the highway. Most rooms back up to a four lane that produces a little unwanted noise but nothing too bad. The breakfast was also not much to write home about with mainly assorted Danishes and breakfast bars. For the price though this place is a winner.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r298132958-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>298132958</t>
+  </si>
+  <si>
+    <t>08/11/2015</t>
+  </si>
+  <si>
+    <t>Great little hotel</t>
+  </si>
+  <si>
+    <t>Great little hotel! It is so close to beautiful downtown San Clemente. It's super close to many gorgeous beaches. The rooms are super clean and big, not fancy, but great! Decent price for a great location!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r294808053-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>294808053</t>
+  </si>
+  <si>
+    <t>08/01/2015</t>
+  </si>
+  <si>
+    <t>Close to the beach</t>
+  </si>
+  <si>
+    <t>I gave a 5 stars because of the closeness to the beach, cleanliness but was really old building! We are not really used to this kind of hotels no hot breakfast but was OK! We stayed 2 days, i think good for people who are not picky and just need a place to stay</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r294094705-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>294094705</t>
+  </si>
+  <si>
+    <t>07/30/2015</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Not a bad place to stay for a few nights.  The room is standard but clean and well equipped with hairdryer, coffee pot, etc.  A parking garage is available for no charge.  None of the rooms have an ocean view but it can certainly be seen from the street.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r286576008-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>286576008</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
+  </si>
+  <si>
+    <t>Beach retreat</t>
+  </si>
+  <si>
+    <t>I read a lot of poor reviews on the property. As it turns out, my wife and I had a good experience. The room was better than I expected.Very clean room and bathroom. The traffic noise not bad. Less than the noise in Vegas. I would recommend this to anyone. I will return.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r282738960-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>282738960</t>
+  </si>
+  <si>
+    <t>06/24/2015</t>
+  </si>
+  <si>
+    <t>Great location, price and friendly!</t>
+  </si>
+  <si>
+    <t>I couldn't say anything bad about this hotel. Walkable into the main town and buses right outside the door. Super clean and comfortable and the price, for what it is, is awesome. They also held our bags for us while we spent our last day after check-out, at Trestles beach.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r281181795-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>281181795</t>
+  </si>
+  <si>
+    <t>06/18/2015</t>
+  </si>
+  <si>
+    <t>Clean as a whistle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have nothing bad to say whatsoever about this hotel.  The room was sparkling clean.  The staff was friendly and helpful.  There was free WIFI and breakfast.  I would stay at this hotel again if ever in the area.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r277664979-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>277664979</t>
+  </si>
+  <si>
+    <t>06/03/2015</t>
+  </si>
+  <si>
+    <t>Great value</t>
+  </si>
+  <si>
+    <t>A budget property, but good value....the room was fine, had all you needed. Staff were very good, very friendly. The included Breakfast was basic, not overly healthy, but it was included. Good parking, good wifi ....and a reasonable location</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r240769903-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>240769903</t>
+  </si>
+  <si>
+    <t>11/20/2014</t>
+  </si>
+  <si>
+    <t>Okay hotel,  nothing fancy but clean</t>
+  </si>
+  <si>
+    <t>I stayed here one night late as it was the only place I found nearby.  There is nothing wrong with this hotel.  It is exactly what you expect from  Rodeway Inn.  It was a little expensive but near the beach.  The breakfast was n to very good with very limited choices but I read an earlier review that explained why.  All in all an okay stay</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r227386049-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>227386049</t>
+  </si>
+  <si>
+    <t>09/06/2014</t>
+  </si>
+  <si>
+    <t>Amazing, Great Deal, Great Visit!</t>
+  </si>
+  <si>
+    <t>From the moment we stepped on the property to the moment we left, we had an incredible experience. Lois, the incredibly funny front office server, fixed my goofed up reservation (I actually booked an assistance room when I just wanted a king bedroom). She placed us on the fourth floor - only 3 rooms there, with a patio! (Ask for rooms on the 4th - incredible.)The room was clean, comfortable, quiet, despite facing onto the street. In fact, the General Manager, Mr. Bhakta, came into our room after our "stay over" cleaning to check that everything was cleaned. He had a small scrub brush, screwdriver and some other items to make sure no detail was undone. I like decaf, and they had some at the desk. We asked for more towels, and they had them for us. Check out was simple and joy filled. Incredible time, great price - we used our AAA discount. Highly recommended!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>From the moment we stepped on the property to the moment we left, we had an incredible experience. Lois, the incredibly funny front office server, fixed my goofed up reservation (I actually booked an assistance room when I just wanted a king bedroom). She placed us on the fourth floor - only 3 rooms there, with a patio! (Ask for rooms on the 4th - incredible.)The room was clean, comfortable, quiet, despite facing onto the street. In fact, the General Manager, Mr. Bhakta, came into our room after our "stay over" cleaning to check that everything was cleaned. He had a small scrub brush, screwdriver and some other items to make sure no detail was undone. I like decaf, and they had some at the desk. We asked for more towels, and they had them for us. Check out was simple and joy filled. Incredible time, great price - we used our AAA discount. Highly recommended!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r226303458-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>226303458</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>Surprisingly Decent</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for a weekend getaway. Usually Rodeways are not the greatest but this place was very clean and we slept well. Its not a place to go for a romantic getaway but it gave us a place to put our heads down for the night and that was really what we wanted. We would stay here again.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r186745312-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>186745312</t>
+  </si>
+  <si>
+    <t>12/04/2013</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r185811335-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>185811335</t>
+  </si>
+  <si>
+    <t>11/25/2013</t>
+  </si>
+  <si>
+    <t>Very Good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rooms were clean, organized, loved the microwave and frig.  Really helped to make it easy to bring leftovers back. I will stay here again.  </t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r185810598-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>185810598</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r180265727-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>180265727</t>
+  </si>
+  <si>
+    <t>10/08/2013</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>GM-CRHOTEL, General Manager at Rodeway Inn San Clemente, responded to this reviewResponded October 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2013</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r177579993-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>177579993</t>
+  </si>
+  <si>
+    <t>09/17/2013</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r175795522-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>175795522</t>
+  </si>
+  <si>
+    <t>09/04/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r173546221-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>173546221</t>
+  </si>
+  <si>
+    <t>08/22/2013</t>
+  </si>
+  <si>
+    <t>Adequate. The breakfast offerings are very few and there is...</t>
+  </si>
+  <si>
+    <t>Adequate. The breakfast offerings are very few and there is little or no space to eat near to the food.  I will use another nearby motel/hotel as my first choice, but this would serve as a backup if the other is full.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>GM-CRHOTEL, General Manager at Rodeway Inn San Clemente, responded to this reviewResponded October 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2013</t>
+  </si>
+  <si>
+    <t>Adequate. The breakfast offerings are very few and there is little or no space to eat near to the food.  I will use another nearby motel/hotel as my first choice, but this would serve as a backup if the other is full.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r173038448-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>173038448</t>
+  </si>
+  <si>
+    <t>08/19/2013</t>
+  </si>
+  <si>
+    <t>2013 VACATION</t>
+  </si>
+  <si>
+    <t>This was a great room for what we needed.  We hope next time to get a non-smokers room, the bagels and juice was good start to our morning walks along the beach (San Clemente Pier)The staff was nice and there was plenty of parking, nice area, we got to see the local kids play in the park across the street...nice treat:)We were there from 08/07 to 08/14/2013, we will be staying there again soon...I hope!MoreShow less</t>
+  </si>
+  <si>
+    <t>This was a great room for what we needed.  We hope next time to get a non-smokers room, the bagels and juice was good start to our morning walks along the beach (San Clemente Pier)The staff was nice and there was plenty of parking, nice area, we got to see the local kids play in the park across the street...nice treat:)We were there from 08/07 to 08/14/2013, we will be staying there again soon...I hope!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r170708322-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>170708322</t>
+  </si>
+  <si>
+    <t>08/04/2013</t>
+  </si>
+  <si>
+    <t>Second time visiting this property.  This is a great...</t>
+  </si>
+  <si>
+    <t>Second time visiting this property.  This is a great location and affordable for the Dana Point area. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Second time visiting this property.  This is a great location and affordable for the Dana Point area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r168797134-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>168797134</t>
+  </si>
+  <si>
+    <t>07/23/2013</t>
+  </si>
+  <si>
+    <t>Very clean room and not too far from the beach.</t>
+  </si>
+  <si>
+    <t>The room was very clean, the free breakfast had a good variety and the hotel is pretty close to the beach.  The beds were very comfortable and the air conditioning worked great. We definitely would stay there again. MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was very clean, the free breakfast had a good variety and the hotel is pretty close to the beach.  The beds were very comfortable and the air conditioning worked great. We definitely would stay there again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r168611740-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>168611740</t>
+  </si>
+  <si>
+    <t>07/22/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r168411603-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>168411603</t>
+  </si>
+  <si>
+    <t>07/21/2013</t>
+  </si>
+  <si>
+    <t>Hotel 1.5 miles from sea and pier</t>
+  </si>
+  <si>
+    <t>Had little option but to book up due to rental properties hopeless method of booking direct. Had a low expectancy. Was fine.At San Clemente, all you need to do is to roll up at the beach and enjoy yourself. Hotel has to be minimal requirement. Everything was average there to be honest. Internet sucked big time so not for a business traveller. Breakfast was a bit scant.Its a budget hotel and the facilities in the room were fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>GM-CRHOTEL, General Manager at Rodeway Inn San Clemente, responded to this reviewResponded October 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2013</t>
+  </si>
+  <si>
+    <t>Had little option but to book up due to rental properties hopeless method of booking direct. Had a low expectancy. Was fine.At San Clemente, all you need to do is to roll up at the beach and enjoy yourself. Hotel has to be minimal requirement. Everything was average there to be honest. Internet sucked big time so not for a business traveller. Breakfast was a bit scant.Its a budget hotel and the facilities in the room were fine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r165410000-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>165410000</t>
+  </si>
+  <si>
+    <t>06/27/2013</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r164603497-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>164603497</t>
+  </si>
+  <si>
+    <t>06/20/2013</t>
+  </si>
+  <si>
+    <t>Good times @ the beach in January</t>
+  </si>
+  <si>
+    <t>My friend and I had a great first time experience and felt comfortable with the accommodations.  Perfect location for shopping, restaurants and beach activities.  Hopefully, will book again this summer.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>My friend and I had a great first time experience and felt comfortable with the accommodations.  Perfect location for shopping, restaurants and beach activities.  Hopefully, will book again this summer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r164328964-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>164328964</t>
+  </si>
+  <si>
+    <t>06/17/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r158369064-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>158369064</t>
+  </si>
+  <si>
+    <t>04/21/2013</t>
+  </si>
+  <si>
+    <t>Nice hotel. Nothing fancy but it has a refrigerator, microwave and coffee pot. Also a little breakfast.  MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>GM-CRHOTEL, General Manager at Rodeway Inn San Clemente, responded to this reviewResponded May 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2013</t>
+  </si>
+  <si>
+    <t>Nice hotel. Nothing fancy but it has a refrigerator, microwave and coffee pot. Also a little breakfast.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r158136858-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>158136858</t>
+  </si>
+  <si>
+    <t>04/18/2013</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>GM-CRHOTEL, General Manager at Rodeway Inn San Clemente, responded to this reviewResponded April 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r156595500-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>156595500</t>
+  </si>
+  <si>
+    <t>04/04/2013</t>
+  </si>
+  <si>
+    <t>GM-CRHOTEL, General Manager at Rodeway Inn San Clemente, responded to this reviewResponded April 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r153951351-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>153951351</t>
+  </si>
+  <si>
+    <t>03/07/2013</t>
+  </si>
+  <si>
+    <t>Eh</t>
+  </si>
+  <si>
+    <t>Hotel was a little dated. It's a great price for the location! Even new sheets and paint would make a MoreShow less</t>
+  </si>
+  <si>
+    <t>GM-CRHOTEL, General Manager at Rodeway Inn San Clemente, responded to this reviewResponded March 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2013</t>
+  </si>
+  <si>
+    <t>Hotel was a little dated. It's a great price for the location! Even new sheets and paint would make a More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r152661395-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>152661395</t>
+  </si>
+  <si>
+    <t>02/20/2013</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r151675075-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>151675075</t>
+  </si>
+  <si>
+    <t>02/08/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r148313808-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>148313808</t>
+  </si>
+  <si>
+    <t>12/29/2012</t>
+  </si>
+  <si>
+    <t>It was a wonderful hotel...</t>
+  </si>
+  <si>
+    <t>I was very pleased with our hotel in San Clemente.    The room was very clean and all new bathroom fixtures.   The beds were very comfortable and seemed new also.   The decor of the room was pleasant and seemed new and clean.The people at the desk were very helpful and kind.   Also, they went out of their way to give us a room in a quiet location as we had asked.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>GM-CRHOTEL, General Manager at Rodeway Inn San Clemente, responded to this reviewResponded March 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2013</t>
+  </si>
+  <si>
+    <t>I was very pleased with our hotel in San Clemente.    The room was very clean and all new bathroom fixtures.   The beds were very comfortable and seemed new also.   The decor of the room was pleasant and seemed new and clean.The people at the desk were very helpful and kind.   Also, they went out of their way to give us a room in a quiet location as we had asked.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r147488797-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>147488797</t>
+  </si>
+  <si>
+    <t>12/15/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r146775284-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>146775284</t>
+  </si>
+  <si>
+    <t>12/04/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r131562857-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>131562857</t>
+  </si>
+  <si>
+    <t>06/08/2012</t>
+  </si>
+  <si>
+    <t>Last minute and reservation accepted!</t>
+  </si>
+  <si>
+    <t>Our California trip started a day early on a whim after my boyfriend said he didn't have to work. Leaving early on Saturday morning, we both didn't check to set a place up and figured we would just locate a place while driving to San Clemente from Tucson (Our original destination was San Diego). My boyfriend wanted to take me to where his family vacations every year, which is where we were headed. We decided to look for a place after hitting Alpine, California for lunch. Once there, he pulled up expedia and I - pulled up tripadvisor to see where would be a decent place. We saw the Days Inn and promply called - the rate was a decent one. Not only was the lady nice who answered but she offered the different rooms available. We got a room, last minute for less than 100.00. We really didn't care which kind of room we got, so long as we got one so we opted for the cheapest one. We got a 1st floor, accessable king smoking room. We didn't care, we both smoke and it had everything we needed in this sweet town. =) Since we were spending one day there, this room fit the bill. It was very clean, everything was in order, the microwave and mini fridge worked as the TV did. The room (#114) was a smoking room, but didn't smell like one. It was decent...Our California trip started a day early on a whim after my boyfriend said he didn't have to work. Leaving early on Saturday morning, we both didn't check to set a place up and figured we would just locate a place while driving to San Clemente from Tucson (Our original destination was San Diego). My boyfriend wanted to take me to where his family vacations every year, which is where we were headed. We decided to look for a place after hitting Alpine, California for lunch. Once there, he pulled up expedia and I - pulled up tripadvisor to see where would be a decent place. We saw the Days Inn and promply called - the rate was a decent one. Not only was the lady nice who answered but she offered the different rooms available. We got a room, last minute for less than 100.00. We really didn't care which kind of room we got, so long as we got one so we opted for the cheapest one. We got a 1st floor, accessable king smoking room. We didn't care, we both smoke and it had everything we needed in this sweet town. =) Since we were spending one day there, this room fit the bill. It was very clean, everything was in order, the microwave and mini fridge worked as the TV did. The room (#114) was a smoking room, but didn't smell like one. It was decent room, the shower head massaged. Only downside was the view and parking. The view looked into a parking lot with 4 company trucks, but no big deal - we were staying 1 night and who really stays in their hotel room when there is other things to do? The parking can be a bit cramped; there is a lower parking space if everything is full. And please, do not try to park a car bigger than Fiat/Mini Cooper/Smart Car in the compact car parking. You would be a moron like the guy in a Dodge Caravan that did! I have a Caliber, and I didn't park there!I did mention he was taking me to where his family vacations - so he wanted to show me all the little shops, the pier and have dinner. This hotel is located on a quiet side of El Camino Real, about a mile away from the main center of town. The Continental Breakfast is the true definition of the term - there are only bagels, little danishes, coffee, apple and orange juice. The Indian man who was the owner chatted with me while I prepared our bagels, and he was very nice and polite; very chatty too. He checked up to make sure our stay was nice and even waived when we left. If and when I return to San Clemente, I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Our California trip started a day early on a whim after my boyfriend said he didn't have to work. Leaving early on Saturday morning, we both didn't check to set a place up and figured we would just locate a place while driving to San Clemente from Tucson (Our original destination was San Diego). My boyfriend wanted to take me to where his family vacations every year, which is where we were headed. We decided to look for a place after hitting Alpine, California for lunch. Once there, he pulled up expedia and I - pulled up tripadvisor to see where would be a decent place. We saw the Days Inn and promply called - the rate was a decent one. Not only was the lady nice who answered but she offered the different rooms available. We got a room, last minute for less than 100.00. We really didn't care which kind of room we got, so long as we got one so we opted for the cheapest one. We got a 1st floor, accessable king smoking room. We didn't care, we both smoke and it had everything we needed in this sweet town. =) Since we were spending one day there, this room fit the bill. It was very clean, everything was in order, the microwave and mini fridge worked as the TV did. The room (#114) was a smoking room, but didn't smell like one. It was decent...Our California trip started a day early on a whim after my boyfriend said he didn't have to work. Leaving early on Saturday morning, we both didn't check to set a place up and figured we would just locate a place while driving to San Clemente from Tucson (Our original destination was San Diego). My boyfriend wanted to take me to where his family vacations every year, which is where we were headed. We decided to look for a place after hitting Alpine, California for lunch. Once there, he pulled up expedia and I - pulled up tripadvisor to see where would be a decent place. We saw the Days Inn and promply called - the rate was a decent one. Not only was the lady nice who answered but she offered the different rooms available. We got a room, last minute for less than 100.00. We really didn't care which kind of room we got, so long as we got one so we opted for the cheapest one. We got a 1st floor, accessable king smoking room. We didn't care, we both smoke and it had everything we needed in this sweet town. =) Since we were spending one day there, this room fit the bill. It was very clean, everything was in order, the microwave and mini fridge worked as the TV did. The room (#114) was a smoking room, but didn't smell like one. It was decent room, the shower head massaged. Only downside was the view and parking. The view looked into a parking lot with 4 company trucks, but no big deal - we were staying 1 night and who really stays in their hotel room when there is other things to do? The parking can be a bit cramped; there is a lower parking space if everything is full. And please, do not try to park a car bigger than Fiat/Mini Cooper/Smart Car in the compact car parking. You would be a moron like the guy in a Dodge Caravan that did! I have a Caliber, and I didn't park there!I did mention he was taking me to where his family vacations - so he wanted to show me all the little shops, the pier and have dinner. This hotel is located on a quiet side of El Camino Real, about a mile away from the main center of town. The Continental Breakfast is the true definition of the term - there are only bagels, little danishes, coffee, apple and orange juice. The Indian man who was the owner chatted with me while I prepared our bagels, and he was very nice and polite; very chatty too. He checked up to make sure our stay was nice and even waived when we left. If and when I return to San Clemente, I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r131346642-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>131346642</t>
+  </si>
+  <si>
+    <t>06/05/2012</t>
+  </si>
+  <si>
+    <t>Cold reception</t>
+  </si>
+  <si>
+    <t>After a long hot drive down from Santa Barbara we were looking forward to getting to SC and relaxing. We had booked ahead to avoid any stress of having to find a place on our arrival - which turned out to be a mistake. The receptionist (a lady who appeared to be living at the hotel) was rude from the start, greeting us with 'what do you want?'. She then couldn't find our reservation which we were totally cool with, but didn't get any apology for. The icing on the cake was when we returned later to ask if they had any maps of the local area. She pointed at a map on the wall next to me and said 'we have have that one' (in a slightly off tone), before muttering something then pulling out a map from a draw and saying 'you can have this but if you get lost I wont help you'. We were put next to a noisy family and as the walls are paper it felt like we were in the same room, enjoying their arguments from 7am.Apart from that the room was clean (though smelt of cigarettes) and had all the necessary facilities. I know its cheap but that is no excuse for a rude reception, which tainted our arrival in this beautiful little town.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>After a long hot drive down from Santa Barbara we were looking forward to getting to SC and relaxing. We had booked ahead to avoid any stress of having to find a place on our arrival - which turned out to be a mistake. The receptionist (a lady who appeared to be living at the hotel) was rude from the start, greeting us with 'what do you want?'. She then couldn't find our reservation which we were totally cool with, but didn't get any apology for. The icing on the cake was when we returned later to ask if they had any maps of the local area. She pointed at a map on the wall next to me and said 'we have have that one' (in a slightly off tone), before muttering something then pulling out a map from a draw and saying 'you can have this but if you get lost I wont help you'. We were put next to a noisy family and as the walls are paper it felt like we were in the same room, enjoying their arguments from 7am.Apart from that the room was clean (though smelt of cigarettes) and had all the necessary facilities. I know its cheap but that is no excuse for a rude reception, which tainted our arrival in this beautiful little town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r125116179-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>125116179</t>
+  </si>
+  <si>
+    <t>02/23/2012</t>
+  </si>
+  <si>
+    <t>You get for what you pay for and a little more</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pleasant. Good price. It's clean and the receptionist was eager to help. I would come back here on a budget. Right now so quiet. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r114972043-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>114972043</t>
+  </si>
+  <si>
+    <t>07/02/2011</t>
+  </si>
+  <si>
+    <t>Hope you don't get this hotel through hotwire</t>
+  </si>
+  <si>
+    <t>We had to book a room quickly for that night after having to check out of another hotel unexpectedly. I booked on hotwire and got this hotel. i called ahead and the manager graciously let us check in 2.5 hours early which was greatly appreciated. Once I arrived however, the manager seemed very upset that we had booked on hotwire and told me that hotwire takes $30 and it was too bad because if I had called him and booked directly I could've gotten the room for $65. I explained that I had to book something quickly and was unfamiliar with the area. When my boyfriend asked if we could get that rate if we wanted to stay an additional night, he became very argumentative and said there were no rooms available the next night. He gave us our room key and I saw that it was on the corner, on the bottom floor right next to the parking lot with everyone coming and going. It turned out fine, because we were near our car and did not have to haul our luggage upstairs. The room was clean, comfortable and quiet. The wifi was free but extremely slow. most of the time we had only two bars. We did not try the continental breakfast as we slept in.  I have no complaints except the hotwire thing. It is weird to me that hotels depend on hotwire to fill their empty...We had to book a room quickly for that night after having to check out of another hotel unexpectedly. I booked on hotwire and got this hotel. i called ahead and the manager graciously let us check in 2.5 hours early which was greatly appreciated. Once I arrived however, the manager seemed very upset that we had booked on hotwire and told me that hotwire takes $30 and it was too bad because if I had called him and booked directly I could've gotten the room for $65. I explained that I had to book something quickly and was unfamiliar with the area. When my boyfriend asked if we could get that rate if we wanted to stay an additional night, he became very argumentative and said there were no rooms available the next night. He gave us our room key and I saw that it was on the corner, on the bottom floor right next to the parking lot with everyone coming and going. It turned out fine, because we were near our car and did not have to haul our luggage upstairs. The room was clean, comfortable and quiet. The wifi was free but extremely slow. most of the time we had only two bars. We did not try the continental breakfast as we slept in.  I have no complaints except the hotwire thing. It is weird to me that hotels depend on hotwire to fill their empty rooms and then resent it when you use it! The manager did give us an extra key card when we locked ourselves out of our room. I don't know if we will stay here again, however.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>We had to book a room quickly for that night after having to check out of another hotel unexpectedly. I booked on hotwire and got this hotel. i called ahead and the manager graciously let us check in 2.5 hours early which was greatly appreciated. Once I arrived however, the manager seemed very upset that we had booked on hotwire and told me that hotwire takes $30 and it was too bad because if I had called him and booked directly I could've gotten the room for $65. I explained that I had to book something quickly and was unfamiliar with the area. When my boyfriend asked if we could get that rate if we wanted to stay an additional night, he became very argumentative and said there were no rooms available the next night. He gave us our room key and I saw that it was on the corner, on the bottom floor right next to the parking lot with everyone coming and going. It turned out fine, because we were near our car and did not have to haul our luggage upstairs. The room was clean, comfortable and quiet. The wifi was free but extremely slow. most of the time we had only two bars. We did not try the continental breakfast as we slept in.  I have no complaints except the hotwire thing. It is weird to me that hotels depend on hotwire to fill their empty...We had to book a room quickly for that night after having to check out of another hotel unexpectedly. I booked on hotwire and got this hotel. i called ahead and the manager graciously let us check in 2.5 hours early which was greatly appreciated. Once I arrived however, the manager seemed very upset that we had booked on hotwire and told me that hotwire takes $30 and it was too bad because if I had called him and booked directly I could've gotten the room for $65. I explained that I had to book something quickly and was unfamiliar with the area. When my boyfriend asked if we could get that rate if we wanted to stay an additional night, he became very argumentative and said there were no rooms available the next night. He gave us our room key and I saw that it was on the corner, on the bottom floor right next to the parking lot with everyone coming and going. It turned out fine, because we were near our car and did not have to haul our luggage upstairs. The room was clean, comfortable and quiet. The wifi was free but extremely slow. most of the time we had only two bars. We did not try the continental breakfast as we slept in.  I have no complaints except the hotwire thing. It is weird to me that hotels depend on hotwire to fill their empty rooms and then resent it when you use it! The manager did give us an extra key card when we locked ourselves out of our room. I don't know if we will stay here again, however.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r108139603-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>108139603</t>
+  </si>
+  <si>
+    <t>05/13/2011</t>
+  </si>
+  <si>
+    <t>Surprisingly good value</t>
+  </si>
+  <si>
+    <t>This hotel met all of our requirements - clean, safe neighborhood, quiet, free breakfast and reasonably priced.  It wasn't anything super fancy, but it was more than reasonable for what we got.  My ultimate compliment - I felt comfortable walking on the carpet in my bare feet.  That's rare!The breakfast was adequate - juice, decent coffee, bagels in plastic bags, sweet rolls in plastic bags, apples, oranges, instant oatmeal, etc.  Not big on whole grains, so we bought a loaf of bread and some peanut butter, and used their toaster each morning.  With the juice and fresh fruit, it was fine.I would return again - and recommend it if you're in the market for a no-frills, but perfectly adequate place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>This hotel met all of our requirements - clean, safe neighborhood, quiet, free breakfast and reasonably priced.  It wasn't anything super fancy, but it was more than reasonable for what we got.  My ultimate compliment - I felt comfortable walking on the carpet in my bare feet.  That's rare!The breakfast was adequate - juice, decent coffee, bagels in plastic bags, sweet rolls in plastic bags, apples, oranges, instant oatmeal, etc.  Not big on whole grains, so we bought a loaf of bread and some peanut butter, and used their toaster each morning.  With the juice and fresh fruit, it was fine.I would return again - and recommend it if you're in the market for a no-frills, but perfectly adequate place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r85647967-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>85647967</t>
+  </si>
+  <si>
+    <t>11/01/2010</t>
+  </si>
+  <si>
+    <t>Very average, almost.</t>
+  </si>
+  <si>
+    <t>There were some not-so-great aspects of this hotel, I stayed for 2 nights in September. I reserved a non-smoking room through Orbitz and the manager said nope, only smoking rooms were left (yack!). I will say this, he put me in a "smoking" room on the top floor that was totally clean smelling, so... that worked out for me, but be wary.Also, the manager railed against how Orbitz cheats them, etc etc etc. Very bad vibe I got.The common areas were non-existant. This is a very very basic hotel. I had a bad experience with kids running around on walkways outside my door waking me up more than once... (and I've schlepped my share of low-end hotels, dont get me wrong, I know you can have some good tenants or questionable tenants with the luck of the draw). The hotel has kind of a "beat down" feel to it, although the room was clean. The business outside my window made alot of noise too (I was on the south (or west) end of the hotel).Bottom line: ok if you have to or you get a killer deal.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>There were some not-so-great aspects of this hotel, I stayed for 2 nights in September. I reserved a non-smoking room through Orbitz and the manager said nope, only smoking rooms were left (yack!). I will say this, he put me in a "smoking" room on the top floor that was totally clean smelling, so... that worked out for me, but be wary.Also, the manager railed against how Orbitz cheats them, etc etc etc. Very bad vibe I got.The common areas were non-existant. This is a very very basic hotel. I had a bad experience with kids running around on walkways outside my door waking me up more than once... (and I've schlepped my share of low-end hotels, dont get me wrong, I know you can have some good tenants or questionable tenants with the luck of the draw). The hotel has kind of a "beat down" feel to it, although the room was clean. The business outside my window made alot of noise too (I was on the south (or west) end of the hotel).Bottom line: ok if you have to or you get a killer deal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r39961581-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>39961581</t>
+  </si>
+  <si>
+    <t>09/06/2009</t>
+  </si>
+  <si>
+    <t>Clean and simple</t>
+  </si>
+  <si>
+    <t>I stayed for a week and a half here, and liked the room. When I reserved online, I asked for a room with a glimpse of the ocean view if possible, and they gave me a room on the top floor where I could just see the ocean down the street (which is the best view you could reasonably get there), so I was happy with that. The place was clean, and the cleaners came every day and did a great job. The traffic from the road below caused a little noise during the day, but it wasn't bad at all. There were kids' sports teams about every other day at the park across the way, so some noise from there, but again not bad. The manager was easy to work with it, and it was easy to extend my stay one day. Overall, the place wasn't fancy or anything, but it was a good, decent place and I would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>I stayed for a week and a half here, and liked the room. When I reserved online, I asked for a room with a glimpse of the ocean view if possible, and they gave me a room on the top floor where I could just see the ocean down the street (which is the best view you could reasonably get there), so I was happy with that. The place was clean, and the cleaners came every day and did a great job. The traffic from the road below caused a little noise during the day, but it wasn't bad at all. There were kids' sports teams about every other day at the park across the way, so some noise from there, but again not bad. The manager was easy to work with it, and it was easy to extend my stay one day. Overall, the place wasn't fancy or anything, but it was a good, decent place and I would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r32466997-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>32466997</t>
+  </si>
+  <si>
+    <t>06/16/2009</t>
+  </si>
+  <si>
+    <t>Great Place-Great Value</t>
+  </si>
+  <si>
+    <t>I came to San Clement to visit relatives, and I was very pleased with my choice. The staff was friendly and helpful, and the room fresh, spacious and clean. The location is convenient and quiet, and parking very adequate. The breakfast was basic but nice - natural hot cereals, cold cereals, danish, muffins, milk, beverages, fruit bars, and fresh fruit; and the coffee was teriffic. I wouldn't hesitate to stay here again or recommend this Days Inn to anyone visiting SC.</t>
+  </si>
+  <si>
+    <t>January 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r14844206-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>14844206</t>
+  </si>
+  <si>
+    <t>04/06/2008</t>
+  </si>
+  <si>
+    <t>Clean and Simple</t>
+  </si>
+  <si>
+    <t>I commute from Los Angeles, and sometimes just need a break from the traffic.  Stayed at this motel.  Desk person, was quite friendly, and the room was suprisingly clean, with the exception of some ants.Quiet and affordable.  I will stay here again.</t>
+  </si>
+  <si>
+    <t>March 2008</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1731,3858 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>113</v>
+      </c>
+      <c r="O12" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>124</v>
+      </c>
+      <c r="O13" t="s">
+        <v>125</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" t="s">
+        <v>130</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>131</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" t="s">
+        <v>136</v>
+      </c>
+      <c r="L15" t="s">
+        <v>137</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>138</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>147</v>
+      </c>
+      <c r="J17" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" t="s">
+        <v>149</v>
+      </c>
+      <c r="L17" t="s">
+        <v>150</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>153</v>
+      </c>
+      <c r="J18" t="s">
+        <v>154</v>
+      </c>
+      <c r="K18" t="s">
+        <v>155</v>
+      </c>
+      <c r="L18" t="s">
+        <v>156</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>157</v>
+      </c>
+      <c r="O18" t="s">
+        <v>125</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>160</v>
+      </c>
+      <c r="J19" t="s">
+        <v>161</v>
+      </c>
+      <c r="K19" t="s">
+        <v>162</v>
+      </c>
+      <c r="L19" t="s">
+        <v>163</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>157</v>
+      </c>
+      <c r="O19" t="s">
+        <v>75</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>165</v>
+      </c>
+      <c r="J20" t="s">
+        <v>166</v>
+      </c>
+      <c r="K20" t="s">
+        <v>167</v>
+      </c>
+      <c r="L20" t="s">
+        <v>168</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>157</v>
+      </c>
+      <c r="O20" t="s">
+        <v>82</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>169</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>170</v>
+      </c>
+      <c r="J21" t="s">
+        <v>171</v>
+      </c>
+      <c r="K21" t="s">
+        <v>172</v>
+      </c>
+      <c r="L21" t="s">
+        <v>173</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>175</v>
+      </c>
+      <c r="J22" t="s">
+        <v>176</v>
+      </c>
+      <c r="K22" t="s">
+        <v>177</v>
+      </c>
+      <c r="L22" t="s">
+        <v>178</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>179</v>
+      </c>
+      <c r="O22" t="s">
+        <v>82</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>180</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>181</v>
+      </c>
+      <c r="J23" t="s">
+        <v>182</v>
+      </c>
+      <c r="K23" t="s">
+        <v>183</v>
+      </c>
+      <c r="L23" t="s">
+        <v>184</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>185</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>186</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>187</v>
+      </c>
+      <c r="J24" t="s">
+        <v>188</v>
+      </c>
+      <c r="K24" t="s">
+        <v>189</v>
+      </c>
+      <c r="L24" t="s">
+        <v>190</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>179</v>
+      </c>
+      <c r="O24" t="s">
+        <v>82</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>191</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>192</v>
+      </c>
+      <c r="J25" t="s">
+        <v>193</v>
+      </c>
+      <c r="K25" t="s">
+        <v>194</v>
+      </c>
+      <c r="L25" t="s">
+        <v>195</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>179</v>
+      </c>
+      <c r="O25" t="s">
+        <v>75</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>196</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>197</v>
+      </c>
+      <c r="J26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K26" t="s">
+        <v>199</v>
+      </c>
+      <c r="L26" t="s">
+        <v>200</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>201</v>
+      </c>
+      <c r="O26" t="s">
+        <v>67</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>202</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>203</v>
+      </c>
+      <c r="J27" t="s">
+        <v>204</v>
+      </c>
+      <c r="K27" t="s">
+        <v>205</v>
+      </c>
+      <c r="L27" t="s">
+        <v>206</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>207</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>209</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>210</v>
+      </c>
+      <c r="J28" t="s">
+        <v>211</v>
+      </c>
+      <c r="K28" t="s">
+        <v>212</v>
+      </c>
+      <c r="L28" t="s">
+        <v>213</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>214</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>215</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>216</v>
+      </c>
+      <c r="J29" t="s">
+        <v>217</v>
+      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s"/>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>218</v>
+      </c>
+      <c r="O29" t="s">
+        <v>82</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>219</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>220</v>
+      </c>
+      <c r="J30" t="s">
+        <v>221</v>
+      </c>
+      <c r="K30" t="s">
+        <v>222</v>
+      </c>
+      <c r="L30" t="s">
+        <v>223</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>224</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>225</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>226</v>
+      </c>
+      <c r="J31" t="s">
+        <v>221</v>
+      </c>
+      <c r="K31" t="s"/>
+      <c r="L31" t="s"/>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>224</v>
+      </c>
+      <c r="O31" t="s">
+        <v>125</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>227</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>228</v>
+      </c>
+      <c r="J32" t="s">
+        <v>229</v>
+      </c>
+      <c r="K32" t="s"/>
+      <c r="L32" t="s">
+        <v>230</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>231</v>
+      </c>
+      <c r="O32" t="s">
+        <v>125</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>232</v>
+      </c>
+      <c r="X32" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>235</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>236</v>
+      </c>
+      <c r="J33" t="s">
+        <v>237</v>
+      </c>
+      <c r="K33" t="s"/>
+      <c r="L33" t="s">
+        <v>230</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>238</v>
+      </c>
+      <c r="O33" t="s">
+        <v>82</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>232</v>
+      </c>
+      <c r="X33" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>239</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>240</v>
+      </c>
+      <c r="J34" t="s">
+        <v>241</v>
+      </c>
+      <c r="K34" t="s"/>
+      <c r="L34" t="s">
+        <v>230</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>238</v>
+      </c>
+      <c r="O34" t="s">
+        <v>75</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>232</v>
+      </c>
+      <c r="X34" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>242</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>243</v>
+      </c>
+      <c r="J35" t="s">
+        <v>244</v>
+      </c>
+      <c r="K35" t="s">
+        <v>245</v>
+      </c>
+      <c r="L35" t="s">
+        <v>246</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>247</v>
+      </c>
+      <c r="O35" t="s">
+        <v>125</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>248</v>
+      </c>
+      <c r="X35" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>251</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>252</v>
+      </c>
+      <c r="J36" t="s">
+        <v>253</v>
+      </c>
+      <c r="K36" t="s">
+        <v>254</v>
+      </c>
+      <c r="L36" t="s">
+        <v>255</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>247</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>248</v>
+      </c>
+      <c r="X36" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>257</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>258</v>
+      </c>
+      <c r="J37" t="s">
+        <v>259</v>
+      </c>
+      <c r="K37" t="s">
+        <v>260</v>
+      </c>
+      <c r="L37" t="s">
+        <v>261</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>262</v>
+      </c>
+      <c r="O37" t="s">
+        <v>82</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>248</v>
+      </c>
+      <c r="X37" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>264</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>265</v>
+      </c>
+      <c r="J38" t="s">
+        <v>266</v>
+      </c>
+      <c r="K38" t="s">
+        <v>267</v>
+      </c>
+      <c r="L38" t="s">
+        <v>268</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>248</v>
+      </c>
+      <c r="X38" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>270</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>271</v>
+      </c>
+      <c r="J39" t="s">
+        <v>272</v>
+      </c>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s">
+        <v>230</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>262</v>
+      </c>
+      <c r="O39" t="s">
+        <v>75</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>248</v>
+      </c>
+      <c r="X39" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>273</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>274</v>
+      </c>
+      <c r="J40" t="s">
+        <v>275</v>
+      </c>
+      <c r="K40" t="s">
+        <v>276</v>
+      </c>
+      <c r="L40" t="s">
+        <v>277</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>262</v>
+      </c>
+      <c r="O40" t="s">
+        <v>82</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>278</v>
+      </c>
+      <c r="X40" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>281</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>282</v>
+      </c>
+      <c r="J41" t="s">
+        <v>283</v>
+      </c>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s">
+        <v>230</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>284</v>
+      </c>
+      <c r="O41" t="s">
+        <v>82</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>278</v>
+      </c>
+      <c r="X41" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>285</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>286</v>
+      </c>
+      <c r="J42" t="s">
+        <v>287</v>
+      </c>
+      <c r="K42" t="s">
+        <v>288</v>
+      </c>
+      <c r="L42" t="s">
+        <v>289</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>290</v>
+      </c>
+      <c r="O42" t="s">
+        <v>75</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>278</v>
+      </c>
+      <c r="X42" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>292</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>293</v>
+      </c>
+      <c r="J43" t="s">
+        <v>294</v>
+      </c>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s">
+        <v>230</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>284</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>278</v>
+      </c>
+      <c r="X43" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>295</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>296</v>
+      </c>
+      <c r="J44" t="s">
+        <v>297</v>
+      </c>
+      <c r="K44" t="s">
+        <v>58</v>
+      </c>
+      <c r="L44" t="s">
+        <v>298</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>299</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>300</v>
+      </c>
+      <c r="X44" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>303</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>304</v>
+      </c>
+      <c r="J45" t="s">
+        <v>305</v>
+      </c>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s">
+        <v>230</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>306</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>307</v>
+      </c>
+      <c r="X45" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>309</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>310</v>
+      </c>
+      <c r="J46" t="s">
+        <v>311</v>
+      </c>
+      <c r="K46" t="s"/>
+      <c r="L46" t="s">
+        <v>230</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>306</v>
+      </c>
+      <c r="O46" t="s">
+        <v>82</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>312</v>
+      </c>
+      <c r="X46" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>314</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>315</v>
+      </c>
+      <c r="J47" t="s">
+        <v>316</v>
+      </c>
+      <c r="K47" t="s">
+        <v>317</v>
+      </c>
+      <c r="L47" t="s">
+        <v>318</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>306</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>319</v>
+      </c>
+      <c r="X47" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>322</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>323</v>
+      </c>
+      <c r="J48" t="s">
+        <v>324</v>
+      </c>
+      <c r="K48" t="s"/>
+      <c r="L48" t="s">
+        <v>230</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>325</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>319</v>
+      </c>
+      <c r="X48" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>326</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>327</v>
+      </c>
+      <c r="J49" t="s">
+        <v>328</v>
+      </c>
+      <c r="K49" t="s"/>
+      <c r="L49" t="s">
+        <v>230</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>325</v>
+      </c>
+      <c r="O49" t="s">
+        <v>75</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>319</v>
+      </c>
+      <c r="X49" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>329</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>330</v>
+      </c>
+      <c r="J50" t="s">
+        <v>331</v>
+      </c>
+      <c r="K50" t="s">
+        <v>332</v>
+      </c>
+      <c r="L50" t="s">
+        <v>333</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>334</v>
+      </c>
+      <c r="O50" t="s">
+        <v>82</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>335</v>
+      </c>
+      <c r="X50" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>338</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>339</v>
+      </c>
+      <c r="J51" t="s">
+        <v>340</v>
+      </c>
+      <c r="K51" t="s"/>
+      <c r="L51" t="s"/>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>334</v>
+      </c>
+      <c r="O51" t="s">
+        <v>82</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>2</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>341</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>342</v>
+      </c>
+      <c r="J52" t="s">
+        <v>343</v>
+      </c>
+      <c r="K52" t="s"/>
+      <c r="L52" t="s"/>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>334</v>
+      </c>
+      <c r="O52" t="s">
+        <v>82</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>344</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>345</v>
+      </c>
+      <c r="J53" t="s">
+        <v>346</v>
+      </c>
+      <c r="K53" t="s">
+        <v>347</v>
+      </c>
+      <c r="L53" t="s">
+        <v>348</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>349</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>351</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>352</v>
+      </c>
+      <c r="J54" t="s">
+        <v>353</v>
+      </c>
+      <c r="K54" t="s">
+        <v>354</v>
+      </c>
+      <c r="L54" t="s">
+        <v>355</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>356</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>358</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>359</v>
+      </c>
+      <c r="J55" t="s">
+        <v>360</v>
+      </c>
+      <c r="K55" t="s">
+        <v>361</v>
+      </c>
+      <c r="L55" t="s">
+        <v>362</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>363</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>364</v>
+      </c>
+      <c r="J56" t="s">
+        <v>365</v>
+      </c>
+      <c r="K56" t="s">
+        <v>366</v>
+      </c>
+      <c r="L56" t="s">
+        <v>367</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>368</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>2</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>370</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>371</v>
+      </c>
+      <c r="J57" t="s">
+        <v>372</v>
+      </c>
+      <c r="K57" t="s">
+        <v>373</v>
+      </c>
+      <c r="L57" t="s">
+        <v>374</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>375</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>377</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>378</v>
+      </c>
+      <c r="J58" t="s">
+        <v>379</v>
+      </c>
+      <c r="K58" t="s">
+        <v>380</v>
+      </c>
+      <c r="L58" t="s">
+        <v>381</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>382</v>
+      </c>
+      <c r="O58" t="s">
+        <v>67</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>2</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>384</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>385</v>
+      </c>
+      <c r="J59" t="s">
+        <v>386</v>
+      </c>
+      <c r="K59" t="s">
+        <v>387</v>
+      </c>
+      <c r="L59" t="s">
+        <v>388</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>389</v>
+      </c>
+      <c r="O59" t="s">
+        <v>67</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>391</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>392</v>
+      </c>
+      <c r="J60" t="s">
+        <v>393</v>
+      </c>
+      <c r="K60" t="s">
+        <v>394</v>
+      </c>
+      <c r="L60" t="s">
+        <v>395</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>396</v>
+      </c>
+      <c r="O60" t="s">
+        <v>67</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>14282</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>397</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>398</v>
+      </c>
+      <c r="J61" t="s">
+        <v>399</v>
+      </c>
+      <c r="K61" t="s">
+        <v>400</v>
+      </c>
+      <c r="L61" t="s">
+        <v>401</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>402</v>
+      </c>
+      <c r="O61" t="s">
+        <v>125</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>401</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_682.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_682.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="462">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>AlanWhickersMate</t>
+  </si>
+  <si>
     <t>07/10/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>Once in my room, I examined the bill and noticed that I'd been charged a little more than agreed. I went back to the reception and spoke to the American lady who informed me that it was a charge to have a safe in the room. She said, 'Oh didn't I mention the charge when you checked in?'. Erm, no she didn't, but she did remember to tell me the other important information, such as check out time and breakfast. An additional charge for a safe is utter nonsense. What next...will you be taking a shower Sir? that will be an additional $5. Are you likely to use the toilet Sir? it's $1 per flush and if you use paper there will be an additional charge or 10 cents per sheet. Come on management, this is penny pinching and pure greed.More</t>
   </si>
   <si>
+    <t>Rebecca M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r525824873-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t>I checked in late on a Friday night and Lois was very pleasant. She gave me recommendations on restaurants within walking distance of the hotel. We went to the Mexican place up the hill and it was great. Our room was much larger than I expected and very clean. I wasn't expecting anything spectacular for the price we paid; so i was pleasantly surprised with how nice our room was.The shower was amazing, lots of pressure! The room was cleaned every day while we were out. The hotel was very quiet through the weekend. There was plenty of parking in the garage or on the main level.  Perfect location near the outlet mall and restaurants. If we return to that area again, we will definitely stay here again.More</t>
   </si>
   <si>
+    <t>Mark S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r525295770-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t>I was. Very pleased with their accommodation. Very pleasant front desk lady named Lois help me check in and gave me options of what floor and room I would prefer.  I asked where the nearest movie theater was and she happily gave me directions to it. The room was clean and very spacious. The staff was quiet and gave me the privacy I needed when I slept in. Parking was convenient and safe. The parking garage gave me that peace of mind that my vehicle is out of danger. I would stay there again if I visit again. The only suggestion I do have is they need to up their free breakfast selection. Overall very nice place for a quick visit and stay in San Clemente. I will recommend them to people. More</t>
   </si>
   <si>
+    <t>eddiesNYC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r510498627-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -246,6 +258,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>B2188LNdenisej</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r505978474-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -270,6 +285,9 @@
     <t>Loved the way we were welcomed by a smile, and treated as important guests by all the staff.  We arrived early, and accommodated immediately.  We stayed three nights in room 405 which was huge and sits on the corner of the hotel.  This room had a couch and a nice balcony where you could see the ocean in the distance. It is on a busy street, but high enough that the traffic did not bother us.  Not a fancy hotel, but great price and had more of a family atmosphere, than a party crowd.  Free parking upstairs and free covered parking downstairs.  We did not have any trouble finding a place to park.  Very close to Doheny Beach, Dana Point and plenty of places to eat.  Continental breakfast is boxed juice, coffee and packaged danish, but the size of the room, price and location make up for not having a full breakfast. Fridge, microwave and coffee maker included in room.   We would absolutely stay here again, especially in the same room.More</t>
   </si>
   <si>
+    <t>drhsiehdh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r503985642-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -285,6 +303,9 @@
     <t>We spend July 4th weekend there and we were surprised how big and clean our room was. There is sufficient parking even the receptionist told us it was fully booked. However, don't plan on eating breakfast there. May be you can grab a danish on your way out to breakfast. Overall, we are quite satisfied with our stay.</t>
   </si>
   <si>
+    <t>Zoom_Gotti</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r473290859-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -306,6 +327,9 @@
     <t>Budget motel on El Camino Real but walkable to the beach if you know the way. My room was small and fronted on the main street. So there was street noise, particularly during the day. But it was comfortable. Parking is available but it could get cramped if the motel is full. But free street parking aside the motel is also available 24/7. Also, watch out for the added safe fee. If you don't use the safe, ask for it to be waived.  Moreover, I discovered a homeless person sleeping outside next to my car. No problem, but some people might have an issue with this. This is a beach town and homelessness is visible here.  On another note, the breakfast is not very appealing. Maybe find something better in town.More</t>
   </si>
   <si>
+    <t>DOREENIENewYork</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r447207303-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -324,6 +348,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>Sarrie C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r424243206-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -342,6 +369,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>ninat727</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r410299828-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -360,6 +390,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>Tommy M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r407984255-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -375,6 +408,9 @@
     <t>Son Dan and I chose this place for location and competitive pricing.  Close enough to area attractions, it was too close to a noisy highway, the busy El Camino Real. For extra noise we had rambunctious neighbors in room above us. They finally quieted down at midnight, after we phoned management.  The manager, of Indian ancestry, was helpful. He upgraded us to a room with a patio where we could enjoy cigars. We skipped the motel breakfast to go the Fisherman on the pier. Rate for night was $143 total, not bad for a tourist town.</t>
   </si>
   <si>
+    <t>JDaniel_Ch</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r396032595-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -396,6 +432,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>SunlonvingGMA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r368230480-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -417,6 +456,9 @@
     <t>The exterior of the building was nice enough, interior felt very old, baseboard had a rotten place in the bathroom.  Had problems checking in with our credit card, had to call our bank to which they said it was the vendor machine malfunction.  The hotel advertised continental breakfast, but is was just a little shelf  in the very small ( maybe 10'x12' lobby) with cereal bars, instant oatmeal packets, and coffee hardly qualifies as a continental breakfast.  Thankfully we only were there one night but our friends that met us in San Clemente were there 2 nights and had trouble with the room key in there room every time they left and tried to re enter on top of the disappointing rooms.More</t>
   </si>
   <si>
+    <t>ChocolateTraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r360135492-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -433,6 +475,9 @@
   </si>
   <si>
     <t>March 2016</t>
+  </si>
+  <si>
+    <t>daposton222</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r348901542-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
@@ -462,6 +507,9 @@
 When we first arrived, like most folks probably, we weren't impressed. Looked like a Rodeway Inn or Motel 6.  We arrived early on a busy three day weekend and so had to wait until after 3 pm to check in, their standard time.  The hotel is no frills, hence the under $100 we paid.  We had to convince the front desk person to allow us to leave our luggage in the...Yes, it IS a Rodeway Inn, so what makes it very good bordering on excellent?  LOCATION: We ride the Metrolink train into San Clemente from the east; there are two stations that serve that area, one is "San Clemente", the other "San Clemente Pier."  For people who wish to do the same, if you disembark at the first, you'll be closer to this hotel, but, you'll have a 15 minute walk uphill, and we had to drag our luggage along with us.  I suppose we could've waited for a cab, but we travelled light so it wasn't that much work.  For those who arrive by car, not an issue.  From the hotel, it's about a 20-30 minute walk, first uphill, then leveling out/downhill to Avienda Del Mar, which is the main drag for downtown.  Along that walk you'll find many interesting shops and restaurants.  In short, the hotel is midway between San Clemente beach, and the Pier, so you can get to either with a stroll. HOTEL &amp; GROUNDSWhen we first arrived, like most folks probably, we weren't impressed. Looked like a Rodeway Inn or Motel 6.  We arrived early on a busy three day weekend and so had to wait until after 3 pm to check in, their standard time.  The hotel is no frills, hence the under $100 we paid.  We had to convince the front desk person to allow us to leave our luggage in the office while we waited for the room to be ready so we could walk around the town.  They obviously have no valet, but, it would be really great if they improved their ability to hold luggage for guests who need that service, I cannot imagine many people would have our arrive-by-train and no car trunk in which to keep the bags circumstance, but, why not do a little extra.  In our case they did, but that was at their discretion.  The Room: first floor king bed.  Very clean, weird layout, kind of like you'd see in a beach house that's been re-re-renovated.  Good water temp and pressure, shampoo and soap only. Again, no frills: no bath mat towel (probably incompetent maid's fault) and two sets of towels only.  Firm, good bed, furnishings were clean and not worn out.  Though the hotel is located on a main street, our room was on the north side and very quiet.OTHER/TRANSPORTATIONTaxis, Uber, and Lyft are in short supply around San Clemente, so plan on walking.  There is a bus line, but it's every sixty minutes, so unless you like waiting at bus stops you'd be better off walking.  That being said, most things are within walking distance, but remember there are hills.  The one negative I will point out is that the front desk staff were not at all educated on local transportation, which to me is one of those fundamental pieces of info that they really should know and be able to share.SUMMARY:All in all, I would return and stay here again, because we weren't there for the hotel, we were there to enjoy each other's company and what was offered outside the hotel: San Clemente.  One more interesting note: I saw several luxury cars parked in the parking lot, Mercedes, Lexus, even a Maserati; apparently even the rich folk like this place!More</t>
   </si>
   <si>
+    <t>Adri C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r312232684-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -480,6 +528,9 @@
     <t>Rodeway is in a prime spot on El Camino Real, just a few blocks from the heart of Downtown San Clemente. The hotel itself was very well kept. We booked a King Suite, which had an awkward layout, but plenty of space and a Jacuzzi tub in the bathroom, which wasn't even mention in the room description. The room was clean, views aren't amazing, but what really upset me was the woman at the front desk. I called ahead to see if my room was ready. She said they were cleaning it and it would be ready in 20 min. So, we made our way out of the beach and over to check in. At least 30 minutes had passed and when i get there she gave me a confused look and said oh no, it wont be ready for another hour!! Really? It was already 2:30 and check in was at 3. She claimed that the people who were staying their prior had chosen not to check out until 2pm. Hmm, maybe she should have mentioned that earlier. Then she yelled, well go eat lunch or something.  We walked into downtown to look around for a bit and returned a few hours later. The room was finally ready. I went over to the ice machine and suddenly, rude front desk lady pops up behind me and insists that I not get too much ice, because I need to save...Rodeway is in a prime spot on El Camino Real, just a few blocks from the heart of Downtown San Clemente. The hotel itself was very well kept. We booked a King Suite, which had an awkward layout, but plenty of space and a Jacuzzi tub in the bathroom, which wasn't even mention in the room description. The room was clean, views aren't amazing, but what really upset me was the woman at the front desk. I called ahead to see if my room was ready. She said they were cleaning it and it would be ready in 20 min. So, we made our way out of the beach and over to check in. At least 30 minutes had passed and when i get there she gave me a confused look and said oh no, it wont be ready for another hour!! Really? It was already 2:30 and check in was at 3. She claimed that the people who were staying their prior had chosen not to check out until 2pm. Hmm, maybe she should have mentioned that earlier. Then she yelled, well go eat lunch or something.  We walked into downtown to look around for a bit and returned a few hours later. The room was finally ready. I went over to the ice machine and suddenly, rude front desk lady pops up behind me and insists that I not get too much ice, because I need to save some for the other guests. Really?? I didn't know it was a crime to get ice. At this point I felt a bit of racial profiling going on, since I am Latina. I was really irritated, the next day I checked out over the phone to avoid any more encounters with her. I would stay hear again, I just hope it's on a day when someone else is at the front desk!More</t>
   </si>
   <si>
+    <t>traveltech09</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r300074926-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -501,6 +552,9 @@
     <t>As a technician spending over 100 nights a year in a hotel room, I am always looking for a good price with little compromise on cleanliness. This hotel was perfect for both. Although this hotel is showing its age, it is well kept and very clean. The location is very close to the beach if that's your reason for staying and a short piece off the 5 if you need to travel for work. The only down side would be the proximity to the highway. Most rooms back up to a four lane that produces a little unwanted noise but nothing too bad. The breakfast was also not much to write home about with mainly assorted Danishes and breakfast bars. For the price though this place is a winner.More</t>
   </si>
   <si>
+    <t>Ashley O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r298132958-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -516,6 +570,9 @@
     <t>Great little hotel! It is so close to beautiful downtown San Clemente. It's super close to many gorgeous beaches. The rooms are super clean and big, not fancy, but great! Decent price for a great location!</t>
   </si>
   <si>
+    <t>mjello98</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r294808053-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -531,6 +588,9 @@
     <t>I gave a 5 stars because of the closeness to the beach, cleanliness but was really old building! We are not really used to this kind of hotels no hot breakfast but was OK! We stayed 2 days, i think good for people who are not picky and just need a place to stay</t>
   </si>
   <si>
+    <t>AmeliaTexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r294094705-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -546,6 +606,9 @@
     <t>Not a bad place to stay for a few nights.  The room is standard but clean and well equipped with hairdryer, coffee pot, etc.  A parking garage is available for no charge.  None of the rooms have an ocean view but it can certainly be seen from the street.</t>
   </si>
   <si>
+    <t>mlacey90</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r286576008-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -564,6 +627,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>becaussietravel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r282738960-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -582,6 +648,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>Thess B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r281181795-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -597,6 +666,9 @@
     <t xml:space="preserve">I have nothing bad to say whatsoever about this hotel.  The room was sparkling clean.  The staff was friendly and helpful.  There was free WIFI and breakfast.  I would stay at this hotel again if ever in the area.  </t>
   </si>
   <si>
+    <t>John L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r277664979-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -612,6 +684,9 @@
     <t>A budget property, but good value....the room was fine, had all you needed. Staff were very good, very friendly. The included Breakfast was basic, not overly healthy, but it was included. Good parking, good wifi ....and a reasonable location</t>
   </si>
   <si>
+    <t>rcajun</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r240769903-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -630,6 +705,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>401matthews</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r227386049-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -651,6 +729,9 @@
     <t>From the moment we stepped on the property to the moment we left, we had an incredible experience. Lois, the incredibly funny front office server, fixed my goofed up reservation (I actually booked an assistance room when I just wanted a king bedroom). She placed us on the fourth floor - only 3 rooms there, with a patio! (Ask for rooms on the 4th - incredible.)The room was clean, comfortable, quiet, despite facing onto the street. In fact, the General Manager, Mr. Bhakta, came into our room after our "stay over" cleaning to check that everything was cleaned. He had a small scrub brush, screwdriver and some other items to make sure no detail was undone. I like decaf, and they had some at the desk. We asked for more towels, and they had them for us. Check out was simple and joy filled. Incredible time, great price - we used our AAA discount. Highly recommended!More</t>
   </si>
   <si>
+    <t>Lngo05</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r226303458-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -669,6 +750,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>kiwiamazon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r186745312-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -681,6 +765,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>Susan V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r185811335-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -699,12 +786,18 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>Robert D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r185810598-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
     <t>185810598</t>
   </si>
   <si>
+    <t>Brian T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r180265727-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -729,6 +822,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>Karen Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r177579993-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -741,6 +837,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>Tarun S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r175795522-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -750,6 +849,9 @@
     <t>09/04/2013</t>
   </si>
   <si>
+    <t>Karen P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r173546221-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -777,6 +879,9 @@
     <t>Adequate. The breakfast offerings are very few and there is little or no space to eat near to the food.  I will use another nearby motel/hotel as my first choice, but this would serve as a backup if the other is full.More</t>
   </si>
   <si>
+    <t>REYNA01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r173038448-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -795,6 +900,9 @@
     <t>This was a great room for what we needed.  We hope next time to get a non-smokers room, the bagels and juice was good start to our morning walks along the beach (San Clemente Pier)The staff was nice and there was plenty of parking, nice area, we got to see the local kids play in the park across the street...nice treat:)We were there from 08/07 to 08/14/2013, we will be staying there again soon...I hope!More</t>
   </si>
   <si>
+    <t>Allen H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r170708322-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -816,6 +924,9 @@
     <t>Second time visiting this property.  This is a great location and affordable for the Dana Point area. More</t>
   </si>
   <si>
+    <t>kandbzmom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r168797134-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -834,6 +945,9 @@
     <t>The room was very clean, the free breakfast had a good variety and the hotel is pretty close to the beach.  The beds were very comfortable and the air conditioning worked great. We definitely would stay there again. More</t>
   </si>
   <si>
+    <t>Ralph B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r168611740-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -843,6 +957,9 @@
     <t>07/22/2013</t>
   </si>
   <si>
+    <t>tourerBrighton</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r168411603-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -867,6 +984,9 @@
     <t>Had little option but to book up due to rental properties hopeless method of booking direct. Had a low expectancy. Was fine.At San Clemente, all you need to do is to roll up at the beach and enjoy yourself. Hotel has to be minimal requirement. Everything was average there to be honest. Internet sucked big time so not for a business traveller. Breakfast was a bit scant.Its a budget hotel and the facilities in the room were fine.More</t>
   </si>
   <si>
+    <t>Tori P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r165410000-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -879,6 +999,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>Carol J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r164603497-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -900,6 +1023,9 @@
     <t>My friend and I had a great first time experience and felt comfortable with the accommodations.  Perfect location for shopping, restaurants and beach activities.  Hopefully, will book again this summer.More</t>
   </si>
   <si>
+    <t>Audra R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r164328964-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -909,6 +1035,9 @@
     <t>06/17/2013</t>
   </si>
   <si>
+    <t>Susan H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r158369064-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -933,6 +1062,9 @@
     <t>Nice hotel. Nothing fancy but it has a refrigerator, microwave and coffee pot. Also a little breakfast.  More</t>
   </si>
   <si>
+    <t>Nicholas C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r158136858-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -951,6 +1083,9 @@
     <t>Responded April 19, 2013</t>
   </si>
   <si>
+    <t>Frank T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r156595500-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -966,6 +1101,9 @@
     <t>Responded April 17, 2013</t>
   </si>
   <si>
+    <t>Joshua R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r153951351-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1002,6 +1140,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>Paula B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r151675075-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1011,6 +1152,9 @@
     <t>02/08/2013</t>
   </si>
   <si>
+    <t>PATRICIA C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r148313808-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1038,6 +1182,9 @@
     <t>I was very pleased with our hotel in San Clemente.    The room was very clean and all new bathroom fixtures.   The beds were very comfortable and seemed new also.   The decor of the room was pleasant and seemed new and clean.The people at the desk were very helpful and kind.   Also, they went out of their way to give us a room in a quiet location as we had asked.More</t>
   </si>
   <si>
+    <t>ANITA783</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r147488797-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1047,6 +1194,9 @@
     <t>12/15/2012</t>
   </si>
   <si>
+    <t>Jim O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r146775284-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1056,6 +1206,9 @@
     <t>12/04/2012</t>
   </si>
   <si>
+    <t>PanamanianSweety</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r131562857-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1077,6 +1230,9 @@
     <t>Our California trip started a day early on a whim after my boyfriend said he didn't have to work. Leaving early on Saturday morning, we both didn't check to set a place up and figured we would just locate a place while driving to San Clemente from Tucson (Our original destination was San Diego). My boyfriend wanted to take me to where his family vacations every year, which is where we were headed. We decided to look for a place after hitting Alpine, California for lunch. Once there, he pulled up expedia and I - pulled up tripadvisor to see where would be a decent place. We saw the Days Inn and promply called - the rate was a decent one. Not only was the lady nice who answered but she offered the different rooms available. We got a room, last minute for less than 100.00. We really didn't care which kind of room we got, so long as we got one so we opted for the cheapest one. We got a 1st floor, accessable king smoking room. We didn't care, we both smoke and it had everything we needed in this sweet town. =) Since we were spending one day there, this room fit the bill. It was very clean, everything was in order, the microwave and mini fridge worked as the TV did. The room (#114) was a smoking room, but didn't smell like one. It was decent...Our California trip started a day early on a whim after my boyfriend said he didn't have to work. Leaving early on Saturday morning, we both didn't check to set a place up and figured we would just locate a place while driving to San Clemente from Tucson (Our original destination was San Diego). My boyfriend wanted to take me to where his family vacations every year, which is where we were headed. We decided to look for a place after hitting Alpine, California for lunch. Once there, he pulled up expedia and I - pulled up tripadvisor to see where would be a decent place. We saw the Days Inn and promply called - the rate was a decent one. Not only was the lady nice who answered but she offered the different rooms available. We got a room, last minute for less than 100.00. We really didn't care which kind of room we got, so long as we got one so we opted for the cheapest one. We got a 1st floor, accessable king smoking room. We didn't care, we both smoke and it had everything we needed in this sweet town. =) Since we were spending one day there, this room fit the bill. It was very clean, everything was in order, the microwave and mini fridge worked as the TV did. The room (#114) was a smoking room, but didn't smell like one. It was decent room, the shower head massaged. Only downside was the view and parking. The view looked into a parking lot with 4 company trucks, but no big deal - we were staying 1 night and who really stays in their hotel room when there is other things to do? The parking can be a bit cramped; there is a lower parking space if everything is full. And please, do not try to park a car bigger than Fiat/Mini Cooper/Smart Car in the compact car parking. You would be a moron like the guy in a Dodge Caravan that did! I have a Caliber, and I didn't park there!I did mention he was taking me to where his family vacations - so he wanted to show me all the little shops, the pier and have dinner. This hotel is located on a quiet side of El Camino Real, about a mile away from the main center of town. The Continental Breakfast is the true definition of the term - there are only bagels, little danishes, coffee, apple and orange juice. The Indian man who was the owner chatted with me while I prepared our bagels, and he was very nice and polite; very chatty too. He checked up to make sure our stay was nice and even waived when we left. If and when I return to San Clemente, I would stay here again.More</t>
   </si>
   <si>
+    <t>hughandzoe</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r131346642-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1098,6 +1254,9 @@
     <t>After a long hot drive down from Santa Barbara we were looking forward to getting to SC and relaxing. We had booked ahead to avoid any stress of having to find a place on our arrival - which turned out to be a mistake. The receptionist (a lady who appeared to be living at the hotel) was rude from the start, greeting us with 'what do you want?'. She then couldn't find our reservation which we were totally cool with, but didn't get any apology for. The icing on the cake was when we returned later to ask if they had any maps of the local area. She pointed at a map on the wall next to me and said 'we have have that one' (in a slightly off tone), before muttering something then pulling out a map from a draw and saying 'you can have this but if you get lost I wont help you'. We were put next to a noisy family and as the walls are paper it felt like we were in the same room, enjoying their arguments from 7am.Apart from that the room was clean (though smelt of cigarettes) and had all the necessary facilities. I know its cheap but that is no excuse for a rude reception, which tainted our arrival in this beautiful little town.More</t>
   </si>
   <si>
+    <t>Eav28</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r125116179-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1113,6 +1272,9 @@
     <t xml:space="preserve">Pleasant. Good price. It's clean and the receptionist was eager to help. I would come back here on a budget. Right now so quiet. </t>
   </si>
   <si>
+    <t>Spygurl007</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r114972043-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1134,6 +1296,9 @@
     <t>We had to book a room quickly for that night after having to check out of another hotel unexpectedly. I booked on hotwire and got this hotel. i called ahead and the manager graciously let us check in 2.5 hours early which was greatly appreciated. Once I arrived however, the manager seemed very upset that we had booked on hotwire and told me that hotwire takes $30 and it was too bad because if I had called him and booked directly I could've gotten the room for $65. I explained that I had to book something quickly and was unfamiliar with the area. When my boyfriend asked if we could get that rate if we wanted to stay an additional night, he became very argumentative and said there were no rooms available the next night. He gave us our room key and I saw that it was on the corner, on the bottom floor right next to the parking lot with everyone coming and going. It turned out fine, because we were near our car and did not have to haul our luggage upstairs. The room was clean, comfortable and quiet. The wifi was free but extremely slow. most of the time we had only two bars. We did not try the continental breakfast as we slept in.  I have no complaints except the hotwire thing. It is weird to me that hotels depend on hotwire to fill their empty...We had to book a room quickly for that night after having to check out of another hotel unexpectedly. I booked on hotwire and got this hotel. i called ahead and the manager graciously let us check in 2.5 hours early which was greatly appreciated. Once I arrived however, the manager seemed very upset that we had booked on hotwire and told me that hotwire takes $30 and it was too bad because if I had called him and booked directly I could've gotten the room for $65. I explained that I had to book something quickly and was unfamiliar with the area. When my boyfriend asked if we could get that rate if we wanted to stay an additional night, he became very argumentative and said there were no rooms available the next night. He gave us our room key and I saw that it was on the corner, on the bottom floor right next to the parking lot with everyone coming and going. It turned out fine, because we were near our car and did not have to haul our luggage upstairs. The room was clean, comfortable and quiet. The wifi was free but extremely slow. most of the time we had only two bars. We did not try the continental breakfast as we slept in.  I have no complaints except the hotwire thing. It is weird to me that hotels depend on hotwire to fill their empty rooms and then resent it when you use it! The manager did give us an extra key card when we locked ourselves out of our room. I don't know if we will stay here again, however.More</t>
   </si>
   <si>
+    <t>mersidoe</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r108139603-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1155,6 +1320,9 @@
     <t>This hotel met all of our requirements - clean, safe neighborhood, quiet, free breakfast and reasonably priced.  It wasn't anything super fancy, but it was more than reasonable for what we got.  My ultimate compliment - I felt comfortable walking on the carpet in my bare feet.  That's rare!The breakfast was adequate - juice, decent coffee, bagels in plastic bags, sweet rolls in plastic bags, apples, oranges, instant oatmeal, etc.  Not big on whole grains, so we bought a loaf of bread and some peanut butter, and used their toaster each morning.  With the juice and fresh fruit, it was fine.I would return again - and recommend it if you're in the market for a no-frills, but perfectly adequate place to stay.More</t>
   </si>
   <si>
+    <t>blitzin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r85647967-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1176,6 +1344,9 @@
     <t>There were some not-so-great aspects of this hotel, I stayed for 2 nights in September. I reserved a non-smoking room through Orbitz and the manager said nope, only smoking rooms were left (yack!). I will say this, he put me in a "smoking" room on the top floor that was totally clean smelling, so... that worked out for me, but be wary.Also, the manager railed against how Orbitz cheats them, etc etc etc. Very bad vibe I got.The common areas were non-existant. This is a very very basic hotel. I had a bad experience with kids running around on walkways outside my door waking me up more than once... (and I've schlepped my share of low-end hotels, dont get me wrong, I know you can have some good tenants or questionable tenants with the luck of the draw). The hotel has kind of a "beat down" feel to it, although the room was clean. The business outside my window made alot of noise too (I was on the south (or west) end of the hotel).Bottom line: ok if you have to or you get a killer deal.More</t>
   </si>
   <si>
+    <t>norcalyuppie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r39961581-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1197,6 +1368,9 @@
     <t>I stayed for a week and a half here, and liked the room. When I reserved online, I asked for a room with a glimpse of the ocean view if possible, and they gave me a room on the top floor where I could just see the ocean down the street (which is the best view you could reasonably get there), so I was happy with that. The place was clean, and the cleaners came every day and did a great job. The traffic from the road below caused a little noise during the day, but it wasn't bad at all. There were kids' sports teams about every other day at the park across the way, so some noise from there, but again not bad. The manager was easy to work with it, and it was easy to extend my stay one day. Overall, the place wasn't fancy or anything, but it was a good, decent place and I would stay there again.More</t>
   </si>
   <si>
+    <t>Spartangirl0716</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r32466997-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
   </si>
   <si>
@@ -1213,6 +1387,9 @@
   </si>
   <si>
     <t>January 2009</t>
+  </si>
+  <si>
+    <t>barcodetech</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33012-d266285-r14844206-Rodeway_Inn_San_Clemente-San_Clemente_California.html</t>
@@ -1735,43 +1912,47 @@
       <c r="A2" t="n">
         <v>14282</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -1789,50 +1970,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>14282</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -1852,50 +2037,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>14282</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L4" t="s">
-        <v>66</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>60</v>
-      </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1909,50 +2098,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>14282</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -1972,50 +2165,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>14282</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2033,50 +2230,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>14282</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
         <v>86</v>
       </c>
-      <c r="K7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>81</v>
-      </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -2096,50 +2297,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>14282</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2153,50 +2358,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>14282</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -2214,50 +2423,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>14282</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="L10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2277,50 +2490,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>14282</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2338,50 +2555,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>14282</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="J12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="K12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="O12" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -2401,50 +2622,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>14282</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="J13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="O13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -2462,50 +2687,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>14282</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="J14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="K14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2523,50 +2752,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>14282</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="J15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="K15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2584,50 +2817,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>14282</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>153</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="J16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="K16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -2647,41 +2884,45 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>14282</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>161</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="J17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="K17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="L17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
@@ -2700,50 +2941,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>14282</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>168</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="J18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="K18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="L18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="O18" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -2761,50 +3006,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>14282</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>176</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="J19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="K19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="L19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="O19" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -2822,50 +3071,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>14282</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>182</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="J20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="K20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="L20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="O20" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2879,41 +3132,45 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>14282</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>188</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="J21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="K21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="L21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
@@ -2932,50 +3189,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>14282</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>194</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="J22" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="K22" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="L22" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="O22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2989,50 +3250,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>14282</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>201</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="J23" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="K23" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="L23" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3046,50 +3311,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>14282</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>208</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="J24" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="K24" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="L24" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="O24" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3103,50 +3372,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>14282</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>214</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="J25" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="K25" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="L25" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="O25" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3166,50 +3439,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>14282</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>220</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="J26" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="K26" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="L26" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="O26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -3229,50 +3506,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>14282</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>227</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="J27" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="K27" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="L27" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -3290,50 +3571,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>14282</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>235</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="J28" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="K28" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="L28" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3353,35 +3638,39 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>14282</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>242</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="J29" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="K29" t="s"/>
       <c r="L29" t="s"/>
@@ -3389,10 +3678,10 @@
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="O29" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -3413,51 +3702,52 @@
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
-      <c r="Y29" t="s"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>14282</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>247</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="J30" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="K30" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="L30" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3481,35 +3771,39 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>14282</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>254</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="J31" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="K31" t="s"/>
       <c r="L31" t="s"/>
@@ -3517,10 +3811,10 @@
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="O31" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="P31" t="n">
         <v>3</v>
@@ -3541,49 +3835,50 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
-      <c r="Y31" t="s"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>14282</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>257</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="J32" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="K32" t="s"/>
       <c r="L32" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="O32" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="P32" t="n">
         <v>2</v>
@@ -3605,54 +3900,58 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="X32" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="Y32" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>14282</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>266</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="J33" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="K33" t="s"/>
       <c r="L33" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="O33" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -3674,54 +3973,58 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="X33" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="Y33" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>14282</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>271</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="J34" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="K34" t="s"/>
       <c r="L34" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="O34" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P34" t="n">
         <v>2</v>
@@ -3743,56 +4046,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="X34" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="Y34" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>14282</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>275</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="J35" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="K35" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="L35" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="O35" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -3814,56 +4121,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="X35" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="Y35" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>14282</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>285</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="J36" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="K36" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="L36" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="n">
         <v>4</v>
@@ -3885,56 +4196,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="X36" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="Y36" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>14282</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>292</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="J37" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="K37" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="L37" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="O37" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P37" t="n">
         <v>3</v>
@@ -3956,47 +4271,51 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="X37" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="Y37" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>14282</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>300</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="J38" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="K38" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="L38" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
@@ -4023,54 +4342,58 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="X38" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="Y38" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>14282</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>307</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="J39" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="K39" t="s"/>
       <c r="L39" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="O39" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P39" t="n">
         <v>3</v>
@@ -4092,56 +4415,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="X39" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="Y39" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>14282</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>311</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="J40" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="K40" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="L40" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="O40" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P40" t="n">
         <v>3</v>
@@ -4163,54 +4490,58 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="X40" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="Y40" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>14282</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>320</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>282</v>
+        <v>322</v>
       </c>
       <c r="J41" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="K41" t="s"/>
       <c r="L41" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
       <c r="O41" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P41" t="n">
         <v>3</v>
@@ -4232,56 +4563,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="X41" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="Y41" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>14282</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>325</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="J42" t="s">
-        <v>287</v>
+        <v>328</v>
       </c>
       <c r="K42" t="s">
-        <v>288</v>
+        <v>329</v>
       </c>
       <c r="L42" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>290</v>
+        <v>331</v>
       </c>
       <c r="O42" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4303,54 +4638,58 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="X42" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="Y42" t="s">
-        <v>291</v>
+        <v>332</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>14282</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>333</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>292</v>
+        <v>334</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="J43" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="K43" t="s"/>
       <c r="L43" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="M43" t="n">
         <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>4</v>
@@ -4372,56 +4711,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="X43" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="Y43" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>14282</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>337</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>295</v>
+        <v>338</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>296</v>
+        <v>339</v>
       </c>
       <c r="J44" t="s">
-        <v>297</v>
+        <v>340</v>
       </c>
       <c r="K44" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L44" t="s">
-        <v>298</v>
+        <v>341</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>299</v>
+        <v>342</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4443,54 +4786,58 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>300</v>
+        <v>343</v>
       </c>
       <c r="X44" t="s">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="Y44" t="s">
-        <v>302</v>
+        <v>345</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>14282</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>346</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>303</v>
+        <v>347</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>304</v>
+        <v>348</v>
       </c>
       <c r="J45" t="s">
-        <v>305</v>
+        <v>349</v>
       </c>
       <c r="K45" t="s"/>
       <c r="L45" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>306</v>
+        <v>350</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -4510,54 +4857,58 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>307</v>
+        <v>351</v>
       </c>
       <c r="X45" t="s">
-        <v>308</v>
+        <v>352</v>
       </c>
       <c r="Y45" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>14282</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>353</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>309</v>
+        <v>354</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>310</v>
+        <v>355</v>
       </c>
       <c r="J46" t="s">
-        <v>311</v>
+        <v>356</v>
       </c>
       <c r="K46" t="s"/>
       <c r="L46" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>306</v>
+        <v>350</v>
       </c>
       <c r="O46" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P46" t="n">
         <v>2</v>
@@ -4579,56 +4930,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>312</v>
+        <v>357</v>
       </c>
       <c r="X46" t="s">
-        <v>313</v>
+        <v>358</v>
       </c>
       <c r="Y46" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>14282</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>359</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>315</v>
+        <v>361</v>
       </c>
       <c r="J47" t="s">
-        <v>316</v>
+        <v>362</v>
       </c>
       <c r="K47" t="s">
-        <v>317</v>
+        <v>363</v>
       </c>
       <c r="L47" t="s">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="M47" t="n">
         <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>306</v>
+        <v>350</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="n">
         <v>3</v>
@@ -4648,54 +5003,58 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>319</v>
+        <v>365</v>
       </c>
       <c r="X47" t="s">
-        <v>320</v>
+        <v>366</v>
       </c>
       <c r="Y47" t="s">
-        <v>321</v>
+        <v>367</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>14282</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>337</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>322</v>
+        <v>368</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>323</v>
+        <v>369</v>
       </c>
       <c r="J48" t="s">
-        <v>324</v>
+        <v>370</v>
       </c>
       <c r="K48" t="s"/>
       <c r="L48" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>325</v>
+        <v>371</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -4717,54 +5076,58 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>319</v>
+        <v>365</v>
       </c>
       <c r="X48" t="s">
-        <v>320</v>
+        <v>366</v>
       </c>
       <c r="Y48" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>14282</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>372</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>326</v>
+        <v>373</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>327</v>
+        <v>374</v>
       </c>
       <c r="J49" t="s">
-        <v>328</v>
+        <v>375</v>
       </c>
       <c r="K49" t="s"/>
       <c r="L49" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>325</v>
+        <v>371</v>
       </c>
       <c r="O49" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -4786,56 +5149,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>319</v>
+        <v>365</v>
       </c>
       <c r="X49" t="s">
-        <v>320</v>
+        <v>366</v>
       </c>
       <c r="Y49" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>14282</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>376</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>329</v>
+        <v>377</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>330</v>
+        <v>378</v>
       </c>
       <c r="J50" t="s">
-        <v>331</v>
+        <v>379</v>
       </c>
       <c r="K50" t="s">
-        <v>332</v>
+        <v>380</v>
       </c>
       <c r="L50" t="s">
-        <v>333</v>
+        <v>381</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>334</v>
+        <v>382</v>
       </c>
       <c r="O50" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -4857,41 +5224,45 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>335</v>
+        <v>383</v>
       </c>
       <c r="X50" t="s">
-        <v>336</v>
+        <v>384</v>
       </c>
       <c r="Y50" t="s">
-        <v>337</v>
+        <v>385</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>14282</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>386</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>338</v>
+        <v>387</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>339</v>
+        <v>388</v>
       </c>
       <c r="J51" t="s">
-        <v>340</v>
+        <v>389</v>
       </c>
       <c r="K51" t="s"/>
       <c r="L51" t="s"/>
@@ -4899,10 +5270,10 @@
         <v>2</v>
       </c>
       <c r="N51" t="s">
-        <v>334</v>
+        <v>382</v>
       </c>
       <c r="O51" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P51" t="n">
         <v>2</v>
@@ -4923,36 +5294,37 @@
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
-      <c r="Y51" t="s"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>14282</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>390</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>341</v>
+        <v>391</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>342</v>
+        <v>392</v>
       </c>
       <c r="J52" t="s">
-        <v>343</v>
+        <v>393</v>
       </c>
       <c r="K52" t="s"/>
       <c r="L52" t="s"/>
@@ -4960,10 +5332,10 @@
         <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>334</v>
+        <v>382</v>
       </c>
       <c r="O52" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -4984,51 +5356,52 @@
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
-      <c r="Y52" t="s"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>14282</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>394</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>344</v>
+        <v>395</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>345</v>
+        <v>396</v>
       </c>
       <c r="J53" t="s">
-        <v>346</v>
+        <v>397</v>
       </c>
       <c r="K53" t="s">
-        <v>347</v>
+        <v>398</v>
       </c>
       <c r="L53" t="s">
-        <v>348</v>
+        <v>399</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>349</v>
+        <v>400</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5052,50 +5425,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>350</v>
+        <v>401</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>14282</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>402</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>351</v>
+        <v>403</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>352</v>
+        <v>404</v>
       </c>
       <c r="J54" t="s">
-        <v>353</v>
+        <v>405</v>
       </c>
       <c r="K54" t="s">
-        <v>354</v>
+        <v>406</v>
       </c>
       <c r="L54" t="s">
-        <v>355</v>
+        <v>407</v>
       </c>
       <c r="M54" t="n">
         <v>2</v>
       </c>
       <c r="N54" t="s">
-        <v>356</v>
+        <v>408</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="n">
         <v>3</v>
@@ -5119,41 +5496,45 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>357</v>
+        <v>409</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>14282</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>410</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>358</v>
+        <v>411</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>359</v>
+        <v>412</v>
       </c>
       <c r="J55" t="s">
-        <v>360</v>
+        <v>413</v>
       </c>
       <c r="K55" t="s">
-        <v>361</v>
+        <v>414</v>
       </c>
       <c r="L55" t="s">
-        <v>362</v>
+        <v>415</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
@@ -5182,50 +5563,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>362</v>
+        <v>415</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>14282</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>416</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>363</v>
+        <v>417</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>364</v>
+        <v>418</v>
       </c>
       <c r="J56" t="s">
-        <v>365</v>
+        <v>419</v>
       </c>
       <c r="K56" t="s">
-        <v>366</v>
+        <v>420</v>
       </c>
       <c r="L56" t="s">
-        <v>367</v>
+        <v>421</v>
       </c>
       <c r="M56" t="n">
         <v>2</v>
       </c>
       <c r="N56" t="s">
-        <v>368</v>
+        <v>422</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5245,50 +5630,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>369</v>
+        <v>423</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>14282</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>424</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>370</v>
+        <v>425</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>371</v>
+        <v>426</v>
       </c>
       <c r="J57" t="s">
-        <v>372</v>
+        <v>427</v>
       </c>
       <c r="K57" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="L57" t="s">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>375</v>
+        <v>430</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -5312,50 +5701,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>376</v>
+        <v>431</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>14282</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>432</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>377</v>
+        <v>433</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>378</v>
+        <v>434</v>
       </c>
       <c r="J58" t="s">
-        <v>379</v>
+        <v>435</v>
       </c>
       <c r="K58" t="s">
-        <v>380</v>
+        <v>436</v>
       </c>
       <c r="L58" t="s">
-        <v>381</v>
+        <v>437</v>
       </c>
       <c r="M58" t="n">
         <v>3</v>
       </c>
       <c r="N58" t="s">
-        <v>382</v>
+        <v>438</v>
       </c>
       <c r="O58" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P58" t="n">
         <v>3</v>
@@ -5379,50 +5772,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>383</v>
+        <v>439</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>14282</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>440</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>384</v>
+        <v>441</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>385</v>
+        <v>442</v>
       </c>
       <c r="J59" t="s">
-        <v>386</v>
+        <v>443</v>
       </c>
       <c r="K59" t="s">
-        <v>387</v>
+        <v>444</v>
       </c>
       <c r="L59" t="s">
-        <v>388</v>
+        <v>445</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>389</v>
+        <v>446</v>
       </c>
       <c r="O59" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
@@ -5446,50 +5843,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>390</v>
+        <v>447</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>14282</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>448</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>391</v>
+        <v>449</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>392</v>
+        <v>450</v>
       </c>
       <c r="J60" t="s">
-        <v>393</v>
+        <v>451</v>
       </c>
       <c r="K60" t="s">
-        <v>394</v>
+        <v>452</v>
       </c>
       <c r="L60" t="s">
-        <v>395</v>
+        <v>453</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>396</v>
+        <v>454</v>
       </c>
       <c r="O60" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -5513,50 +5914,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>395</v>
+        <v>453</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>14282</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>455</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>397</v>
+        <v>456</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>398</v>
+        <v>457</v>
       </c>
       <c r="J61" t="s">
-        <v>399</v>
+        <v>458</v>
       </c>
       <c r="K61" t="s">
-        <v>400</v>
+        <v>459</v>
       </c>
       <c r="L61" t="s">
-        <v>401</v>
+        <v>460</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>402</v>
+        <v>461</v>
       </c>
       <c r="O61" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -5580,7 +5985,7 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>401</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
